--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
   <si>
     <t>Item Description</t>
   </si>
@@ -1075,7 +1075,7 @@
     <t>Valve Drive</t>
   </si>
   <si>
-    <t>Valve Gear Case</t>
+    <t>Valve Gear?Case</t>
   </si>
   <si>
     <t>Vibaration Damper</t>
@@ -1084,6 +1084,18 @@
     <t>Visual Flow Control For Cylind</t>
   </si>
   <si>
+    <t>Supplementary Regulating Device</t>
+  </si>
+  <si>
+    <t>Cam Shaft Supplementary Bearing</t>
+  </si>
+  <si>
+    <t>Regulating Device</t>
+  </si>
+  <si>
+    <t>Air Intake Manifold</t>
+  </si>
+  <si>
     <t>Location Name</t>
   </si>
   <si>
@@ -1124,6 +1136,18 @@
   </si>
   <si>
     <t>WH - Sec 4</t>
+  </si>
+  <si>
+    <t>PRO-WH-RM1</t>
+  </si>
+  <si>
+    <t>PRO-WH-RM2</t>
+  </si>
+  <si>
+    <t>PRO-WH-RM3</t>
+  </si>
+  <si>
+    <t>CV Bay 1-1</t>
   </si>
   <si>
     <t>Warehouse ID</t>
@@ -3833,7 +3857,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4495,6 +4519,46 @@
       </c>
       <c r="B82" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -4518,7 +4582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4531,7 +4595,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4539,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4547,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4555,7 +4619,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4563,7 +4627,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4571,7 +4635,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4579,7 +4643,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4587,7 +4651,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4595,7 +4659,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4603,7 +4667,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4611,7 +4675,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4619,7 +4683,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4627,7 +4691,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4635,7 +4699,39 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4669,10 +4765,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4680,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4688,7 +4784,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4696,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4704,7 +4800,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>Item Description</t>
   </si>
@@ -520,6 +520,189 @@
     <t>Unidentified Orings</t>
   </si>
   <si>
+    <t>AIR BRANCHES FOR CYLINDER COVER</t>
+  </si>
+  <si>
+    <t>ARRANGEMENT OF TURBOCHARGER</t>
+  </si>
+  <si>
+    <t>AUTOMATIC STARTING AIR SHUT-OFF VALVE</t>
+  </si>
+  <si>
+    <t>AUTOMATIC STARTING-AIR STOP VALVE</t>
+  </si>
+  <si>
+    <t>BARRING ENGINE (DRIVE)</t>
+  </si>
+  <si>
+    <t>BARRING ENGINE; HORIZONTAL WORM GEAR</t>
+  </si>
+  <si>
+    <t>BARRING ENGINE; PINION SHAFT</t>
+  </si>
+  <si>
+    <t>BARRING ENGINE; VERTICAL WORM GEAR</t>
+  </si>
+  <si>
+    <t>BEARING CASING FOR CYLINDER COVER</t>
+  </si>
+  <si>
+    <t>CAMSHAFT</t>
+  </si>
+  <si>
+    <t>CAMSHAFT DRIVE</t>
+  </si>
+  <si>
+    <t>CASING (ENGINE WITH BUILT-ON PUMPS)</t>
+  </si>
+  <si>
+    <t>CASING EXHAUST PIPING (TURBOCHARGER ON THE DAMPER SIDE)</t>
+  </si>
+  <si>
+    <t>CASING EXHAUST PIPING (TURBOCHARGER ON THE FLYWHEEL SIDE)</t>
+  </si>
+  <si>
+    <t>CONTROL ELEMENT CABINET</t>
+  </si>
+  <si>
+    <t>CONTROL ELEMENTS</t>
+  </si>
+  <si>
+    <t>COOLING WATER PUMP</t>
+  </si>
+  <si>
+    <t>CRANKCASE</t>
+  </si>
+  <si>
+    <t>CRANKCASE VENT</t>
+  </si>
+  <si>
+    <t>CYLINDER BLOCK</t>
+  </si>
+  <si>
+    <t>CYLINDER BLOCK (CASINGS)</t>
+  </si>
+  <si>
+    <t>CYLINDER COVER</t>
+  </si>
+  <si>
+    <t>CYLINDER LINER</t>
+  </si>
+  <si>
+    <t>CYLINDER LUBRICATING PUMP DRIVE</t>
+  </si>
+  <si>
+    <t>DRIVE (Engine with Built-on Pumps)</t>
+  </si>
+  <si>
+    <t>ENGINE CONTROL VALVES</t>
+  </si>
+  <si>
+    <t>ENGINE FRAME (SIDE COVER)</t>
+  </si>
+  <si>
+    <t>EXHAUST PIPING  (L=Left       R=Right)</t>
+  </si>
+  <si>
+    <t>EXHAUST PIPING (CASING)</t>
+  </si>
+  <si>
+    <t>FUEL INJECTION PUMP (Strengthen Version)</t>
+  </si>
+  <si>
+    <t>FUEL INJECTION VALVE</t>
+  </si>
+  <si>
+    <t>FUEL PRESSURE PIPE</t>
+  </si>
+  <si>
+    <t>FUEL SYSTEM</t>
+  </si>
+  <si>
+    <t>FUEL TRANSFER PUMP</t>
+  </si>
+  <si>
+    <t>GOVERNING LINKAGE</t>
+  </si>
+  <si>
+    <t>GOVERNOR DRIVE</t>
+  </si>
+  <si>
+    <t>INSTRUMENT PANEL</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE WHEELS FOR CAMSHAFT DRIVE</t>
+  </si>
+  <si>
+    <t>LOAD CONTROL</t>
+  </si>
+  <si>
+    <t>LOAD INDICATOR</t>
+  </si>
+  <si>
+    <t>OIL MIST CONTROLLER</t>
+  </si>
+  <si>
+    <t>OIL PUMP</t>
+  </si>
+  <si>
+    <t>PRESSURE REGULATING VALVE</t>
+  </si>
+  <si>
+    <t>PUMP ATTACHMENT</t>
+  </si>
+  <si>
+    <t>RAW WATER PUMP</t>
+  </si>
+  <si>
+    <t>RELIEF VALVE</t>
+  </si>
+  <si>
+    <t>REMOTE LOAD INDICATOR</t>
+  </si>
+  <si>
+    <t>SERVOMOTOR FOR CAMSHAFT DISPLACEMENT</t>
+  </si>
+  <si>
+    <t>STARTING DEVICE</t>
+  </si>
+  <si>
+    <t>STARTING VALVE (DUMMY VALVE)</t>
+  </si>
+  <si>
+    <t>STARTING-AIR SLEEVE VALVE</t>
+  </si>
+  <si>
+    <t>SULZER BELLOWS</t>
+  </si>
+  <si>
+    <t>TACHOGENERATOR</t>
+  </si>
+  <si>
+    <t>THERMOMETER</t>
+  </si>
+  <si>
+    <t>THRUST BEARING FOR CRANKSHAFT</t>
+  </si>
+  <si>
+    <t>THRUST BOLT</t>
+  </si>
+  <si>
+    <t>TIE ROD</t>
+  </si>
+  <si>
+    <t>TRANSMITTER FOR REMOTE TACHOMETER</t>
+  </si>
+  <si>
+    <t>TUBULAR SEALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALVE DRIVE </t>
+  </si>
+  <si>
+    <t>VISUAL FLOW CONTROL FOR CYLINDER LUBRICATION</t>
+  </si>
+  <si>
     <t>Rack Name</t>
   </si>
   <si>
@@ -934,6 +1117,27 @@
     <t>Warehouse Extension</t>
   </si>
   <si>
+    <t>R 4-D</t>
+  </si>
+  <si>
+    <t>R 4-C</t>
+  </si>
+  <si>
+    <t>BOX SEM</t>
+  </si>
+  <si>
+    <t>beside rack 1</t>
+  </si>
+  <si>
+    <t>R 4-B</t>
+  </si>
+  <si>
+    <t>R 4-B/Drawer</t>
+  </si>
+  <si>
+    <t>R 4-C  Drawer</t>
+  </si>
+  <si>
     <t>Group Name</t>
   </si>
   <si>
@@ -958,7 +1162,7 @@
     <t>Control Element Cabinet</t>
   </si>
   <si>
-    <t>Cooling Water Piping for Fuel</t>
+    <t>Cooling Water Piping for Fuel Injector</t>
   </si>
   <si>
     <t>Crankcase Vent</t>
@@ -1084,16 +1288,154 @@
     <t>Visual Flow Control For Cylind</t>
   </si>
   <si>
-    <t>Supplementary Regulating Device</t>
-  </si>
-  <si>
-    <t>Cam Shaft Supplementary Bearing</t>
-  </si>
-  <si>
-    <t>Regulating Device</t>
-  </si>
-  <si>
-    <t>Air Intake Manifold</t>
+    <t>AIR COOLER SUPPORT-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>AIR COOLER-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>AIR DISTRIBUTOR DRIVE</t>
+  </si>
+  <si>
+    <t>AIR INTAKE MANIFOLD</t>
+  </si>
+  <si>
+    <t>ANCHOR BEARING</t>
+  </si>
+  <si>
+    <t>ANTI-VIBRATION DAMPER</t>
+  </si>
+  <si>
+    <t>AUXILIARIES DRIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRING GEAR </t>
+  </si>
+  <si>
+    <t>BBC TURBO-BLOWER-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>BELLOWS EXHAUST GAS MANIFOLD</t>
+  </si>
+  <si>
+    <t>BOSS FOR THERMOMETER</t>
+  </si>
+  <si>
+    <t>CAM SHAFT</t>
+  </si>
+  <si>
+    <t>CAM SHAFT COVER</t>
+  </si>
+  <si>
+    <t>CAMSHAFT FOR GENERATOR</t>
+  </si>
+  <si>
+    <t>CAMSHAFT THRUST BEARING</t>
+  </si>
+  <si>
+    <t>CIRCLIP</t>
+  </si>
+  <si>
+    <t>CLEANING PIPES FOR T.B - OPPOSITE END TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>CONNECTION BETWEEN AIR COOLER AND AIR MANIFOLD</t>
+  </si>
+  <si>
+    <t>CONTACT LIFTING</t>
+  </si>
+  <si>
+    <t>COUPLING SIDE COVER</t>
+  </si>
+  <si>
+    <t>CRANKCASE OIL-VENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRIVEN WATER PUMPS </t>
+  </si>
+  <si>
+    <t>END COVER</t>
+  </si>
+  <si>
+    <t>EXHAUST GAS MANIFOLD</t>
+  </si>
+  <si>
+    <t>EXHAUST MANIFOLD</t>
+  </si>
+  <si>
+    <t>EXTERNAL CAMSHAFT BEARING</t>
+  </si>
+  <si>
+    <t>FUEL INJECTION PIPE</t>
+  </si>
+  <si>
+    <t>FUEL OIL PIPE</t>
+  </si>
+  <si>
+    <t>FUEL PUMP DRIVE</t>
+  </si>
+  <si>
+    <t>INJECTION PUMP-CONTROL AUXILIARY APPARATUS</t>
+  </si>
+  <si>
+    <t>INSULATING LAGGING</t>
+  </si>
+  <si>
+    <t>INTAKE CONNECTION BETWEEN AIR COOLER AND ENGINE</t>
+  </si>
+  <si>
+    <t>INTAKE CONNECTION BETWEEN T.B AND AIR COOLER</t>
+  </si>
+  <si>
+    <t>L.O PRESSURE DROP TRIP LINKAGE</t>
+  </si>
+  <si>
+    <t>LUBE OIL PUMP</t>
+  </si>
+  <si>
+    <t>OIL PAN</t>
+  </si>
+  <si>
+    <t>RECONDITIONING</t>
+  </si>
+  <si>
+    <t>REGULATING DEVICE/FUEL INJECTION PUMP CONTROL LINKAGE</t>
+  </si>
+  <si>
+    <t>RETAINING RING</t>
+  </si>
+  <si>
+    <t>RIGHT HAND CAMSHAFT EXTRA BEARING</t>
+  </si>
+  <si>
+    <t>SOUND-PROOFING FOR CONNECTION BOXES</t>
+  </si>
+  <si>
+    <t>SPECIAL LUB-OIL RETURN PIPE</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY REGULATING DEVICE</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY REGULATING DEVICE/SAFETY DEVICE FOR FUEL CUT</t>
+  </si>
+  <si>
+    <t>TB SUPPORT-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>UNIDENTIFIED ORINGS</t>
+  </si>
+  <si>
+    <t>VALVE CAGE</t>
+  </si>
+  <si>
+    <t>Main Starting Valve</t>
+  </si>
+  <si>
+    <t>Safety Valve for Cylinder</t>
+  </si>
+  <si>
+    <t>WATER INLET &amp; OUTLET CONNECTION</t>
   </si>
   <si>
     <t>Location Name</t>
@@ -1148,6 +1490,99 @@
   </si>
   <si>
     <t>CV Bay 1-1</t>
+  </si>
+  <si>
+    <t>CV Bay 1-2</t>
+  </si>
+  <si>
+    <t>CV Bay 1-3</t>
+  </si>
+  <si>
+    <t>CV Bay 1-4</t>
+  </si>
+  <si>
+    <t>CV Bay 1-5</t>
+  </si>
+  <si>
+    <t>CV Bay 1-6</t>
+  </si>
+  <si>
+    <t>CV Bay 1-7</t>
+  </si>
+  <si>
+    <t>CV Bay 1-8</t>
+  </si>
+  <si>
+    <t>CV Bay 1-9</t>
+  </si>
+  <si>
+    <t>CV Bay 1-10</t>
+  </si>
+  <si>
+    <t>CV 11</t>
+  </si>
+  <si>
+    <t>CV 12</t>
+  </si>
+  <si>
+    <t>CV 13</t>
+  </si>
+  <si>
+    <t>CV Bay 2-14</t>
+  </si>
+  <si>
+    <t>CV Bay 2-15</t>
+  </si>
+  <si>
+    <t>CV Bay 2-16</t>
+  </si>
+  <si>
+    <t>CV Bay 2-17</t>
+  </si>
+  <si>
+    <t>CV Bay 2-18</t>
+  </si>
+  <si>
+    <t>CV Bay 2-19</t>
+  </si>
+  <si>
+    <t>CV Bay 2-20</t>
+  </si>
+  <si>
+    <t>CV Bay 2-21</t>
+  </si>
+  <si>
+    <t>CV Bay 2-22</t>
+  </si>
+  <si>
+    <t>CV Yard</t>
+  </si>
+  <si>
+    <t>Oring Box 1</t>
+  </si>
+  <si>
+    <t>Oring Box 2</t>
+  </si>
+  <si>
+    <t>Oring Box 3</t>
+  </si>
+  <si>
+    <t>Oring Box 5</t>
+  </si>
+  <si>
+    <t>Oring Box 6</t>
+  </si>
+  <si>
+    <t>Oring Box 8</t>
+  </si>
+  <si>
+    <t>Oring Box 9</t>
+  </si>
+  <si>
+    <t>Oring Box 10</t>
+  </si>
+  <si>
+    <t>Oring Drawer</t>
   </si>
   <si>
     <t>Warehouse ID</t>
@@ -1605,10 +2040,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2694,6 +3129,639 @@
         <v>165</v>
       </c>
       <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3">
+        <v>70</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3">
+        <v>71</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3">
+        <v>72</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3">
+        <v>73</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3">
+        <v>74</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3">
+        <v>75</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3">
+        <v>76</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3">
+        <v>77</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3">
+        <v>78</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3">
+        <v>79</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3">
+        <v>80</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3">
+        <v>81</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3">
+        <v>82</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3">
+        <v>83</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3">
+        <v>84</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3">
+        <v>85</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="3">
+        <v>86</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3">
+        <v>87</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3">
+        <v>88</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="3">
+        <v>89</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="3">
+        <v>90</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="3">
+        <v>91</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3">
+        <v>92</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="3">
+        <v>93</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="3">
+        <v>94</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3">
+        <v>95</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="3">
+        <v>96</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="3">
+        <v>97</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="3">
+        <v>98</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="3">
+        <v>99</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3">
+        <v>100</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="3">
+        <v>101</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3">
+        <v>102</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3">
+        <v>103</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="3">
+        <v>104</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3">
+        <v>105</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="3">
+        <v>106</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="3">
+        <v>107</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="3">
+        <v>108</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="3">
+        <v>109</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="3">
+        <v>110</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="3">
+        <v>111</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="3">
+        <v>112</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="3">
+        <v>113</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="3">
+        <v>114</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="3">
+        <v>115</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="3">
+        <v>116</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="3">
+        <v>117</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="3">
+        <v>118</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="3">
+        <v>119</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="3">
+        <v>120</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="3">
+        <v>121</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="3">
+        <v>122</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="3">
+        <v>123</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="3">
+        <v>124</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="3">
+        <v>125</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="3">
+        <v>126</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="3">
+        <v>127</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="3">
+        <v>128</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="3">
+        <v>129</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="3">
+        <v>130</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="3">
+        <v>131</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="3">
+        <v>132</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="3">
+        <v>133</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="3">
+        <v>134</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="3">
+        <v>135</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="3">
+        <v>136</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="3">
+        <v>137</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="3">
+        <v>138</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="3">
+        <v>139</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="3">
+        <v>140</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="3">
+        <v>141</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="3">
+        <v>142</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -2716,7 +3784,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2729,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2737,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2745,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2753,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2761,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2769,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2777,7 +3845,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2785,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2793,7 +3861,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2801,7 +3869,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2809,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2817,7 +3885,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2825,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2833,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2841,7 +3909,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2849,7 +3917,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2857,7 +3925,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2865,7 +3933,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2873,7 +3941,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2881,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2889,7 +3957,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2897,7 +3965,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2905,7 +3973,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2913,7 +3981,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2921,7 +3989,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2929,7 +3997,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2937,7 +4005,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2945,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2953,7 +4021,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2961,7 +4029,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2969,7 +4037,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2977,7 +4045,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2985,7 +4053,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2993,7 +4061,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3001,7 +4069,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3009,7 +4077,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3017,7 +4085,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3025,7 +4093,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3033,7 +4101,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3041,7 +4109,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3049,7 +4117,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3057,7 +4125,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3065,7 +4133,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3073,7 +4141,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3081,7 +4149,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3089,7 +4157,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3097,7 +4165,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3105,7 +4173,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3113,7 +4181,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3121,7 +4189,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3129,7 +4197,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3137,7 +4205,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3145,7 +4213,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3153,7 +4221,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3161,7 +4229,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3169,7 +4237,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3177,7 +4245,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3185,7 +4253,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3193,7 +4261,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3201,7 +4269,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>225</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3209,7 +4277,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3217,7 +4285,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3225,7 +4293,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3233,7 +4301,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3241,7 +4309,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3249,7 +4317,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3257,7 +4325,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3265,7 +4333,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3273,7 +4341,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3281,7 +4349,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3289,7 +4357,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3297,7 +4365,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3305,7 +4373,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3313,7 +4381,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3321,7 +4389,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>240</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3329,7 +4397,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3337,7 +4405,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3345,7 +4413,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3353,7 +4421,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3361,7 +4429,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3369,7 +4437,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3377,7 +4445,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3385,7 +4453,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>248</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3393,7 +4461,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>249</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3401,7 +4469,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3409,7 +4477,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3417,7 +4485,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3425,7 +4493,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3433,7 +4501,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3441,7 +4509,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3449,7 +4517,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>256</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3457,7 +4525,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3465,7 +4533,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -3473,7 +4541,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3481,7 +4549,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3489,7 +4557,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -3497,7 +4565,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -3505,7 +4573,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -3513,7 +4581,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>264</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -3521,7 +4589,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -3529,7 +4597,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -3537,7 +4605,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -3545,7 +4613,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3553,7 +4621,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -3561,7 +4629,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3569,7 +4637,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -3577,7 +4645,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -3585,7 +4653,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -3593,7 +4661,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>274</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -3601,7 +4669,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -3609,7 +4677,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -3617,7 +4685,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -3625,7 +4693,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>278</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -3633,7 +4701,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -3641,7 +4709,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -3649,7 +4717,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -3657,7 +4725,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -3665,7 +4733,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3673,7 +4741,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -3681,7 +4749,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -3689,7 +4757,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -3697,7 +4765,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -3705,7 +4773,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -3713,7 +4781,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -3721,7 +4789,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -3729,7 +4797,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -3737,7 +4805,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -3745,7 +4813,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3753,7 +4821,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -3761,7 +4829,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3769,7 +4837,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3777,7 +4845,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -3785,7 +4853,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3793,7 +4861,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3801,7 +4869,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3809,7 +4877,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3817,7 +4885,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3825,7 +4893,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3833,7 +4901,63 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>303</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +4981,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,7 +4994,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3878,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3886,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3918,7 +5042,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3926,7 +5050,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3942,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3966,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3974,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3990,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4006,7 +5130,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4022,7 +5146,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4030,7 +5154,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4046,7 +5170,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4054,7 +5178,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4078,7 +5202,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4086,7 +5210,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4094,7 +5218,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4118,7 +5242,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4126,7 +5250,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4134,7 +5258,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4142,7 +5266,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4150,7 +5274,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4174,7 +5298,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4182,7 +5306,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4190,7 +5314,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4206,7 +5330,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4222,7 +5346,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4238,7 +5362,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4246,7 +5370,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4254,7 +5378,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4278,7 +5402,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>334</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4302,7 +5426,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4326,7 +5450,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4334,7 +5458,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4342,7 +5466,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4350,7 +5474,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4358,7 +5482,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4366,7 +5490,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4374,7 +5498,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4382,7 +5506,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>343</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4398,7 +5522,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>344</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4414,7 +5538,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>345</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4422,7 +5546,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4430,7 +5554,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4438,7 +5562,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>348</v>
+        <v>416</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4454,7 +5578,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4486,7 +5610,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4502,7 +5626,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4510,7 +5634,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4518,7 +5642,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4526,7 +5650,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4534,7 +5658,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4542,7 +5666,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4550,7 +5674,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4558,7 +5682,383 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -4582,7 +6082,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4595,7 +6095,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>358</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4603,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>359</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4611,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4619,7 +6119,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4627,7 +6127,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4635,7 +6135,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4643,7 +6143,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4651,7 +6151,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4659,7 +6159,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4667,7 +6167,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4675,7 +6175,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4683,7 +6183,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4691,7 +6191,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4699,7 +6199,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4707,7 +6207,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4715,7 +6215,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4723,7 +6223,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4731,7 +6231,271 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -4765,10 +6529,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s">
-        <v>377</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4776,7 +6540,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4784,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4792,7 +6556,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4800,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
   <si>
     <t>Item Description</t>
   </si>
@@ -664,9 +664,6 @@
     <t>SERVOMOTOR FOR CAMSHAFT DISPLACEMENT</t>
   </si>
   <si>
-    <t>STARTING DEVICE</t>
-  </si>
-  <si>
     <t>STARTING VALVE (DUMMY VALVE)</t>
   </si>
   <si>
@@ -901,678 +898,900 @@
     <t>Container beside Rack 5</t>
   </si>
   <si>
-    <t>Oring B0x #1</t>
-  </si>
-  <si>
-    <t>Oring Box # 5</t>
+    <t>O-ring Box #1</t>
+  </si>
+  <si>
+    <t>O-ring Box #5</t>
+  </si>
+  <si>
+    <t>O-ring Box #4</t>
+  </si>
+  <si>
+    <t>O-ring Box #7</t>
+  </si>
+  <si>
+    <t>O-ring Box #2</t>
+  </si>
+  <si>
+    <t>O-ring Box #3</t>
+  </si>
+  <si>
+    <t>O-ring Box #8</t>
+  </si>
+  <si>
+    <t>O-ring Box #9</t>
+  </si>
+  <si>
+    <t>Oring Drawer 1</t>
+  </si>
+  <si>
+    <t>Oring Drawer 2</t>
+  </si>
+  <si>
+    <t>Oring Drawer 3</t>
+  </si>
+  <si>
+    <t>Oring Drawer 4</t>
+  </si>
+  <si>
+    <t>Oring Drawer 5</t>
+  </si>
+  <si>
+    <t>Rack 1</t>
+  </si>
+  <si>
+    <t>Rack 1 Drawer 2</t>
+  </si>
+  <si>
+    <t>Rack 10-A</t>
+  </si>
+  <si>
+    <t>Rack 10-B</t>
+  </si>
+  <si>
+    <t>Rack 10-C</t>
+  </si>
+  <si>
+    <t>Rack 11-A</t>
+  </si>
+  <si>
+    <t>Rack 11-B</t>
+  </si>
+  <si>
+    <t>Rack 1-A</t>
+  </si>
+  <si>
+    <t>Rack 1-B</t>
+  </si>
+  <si>
+    <t>Rack 1-B Drawer 1</t>
+  </si>
+  <si>
+    <t>Rack 1-B Drawer 2</t>
+  </si>
+  <si>
+    <t>Rack 1-B Drawer 3</t>
+  </si>
+  <si>
+    <t>Rack 1-B Drawer 4</t>
+  </si>
+  <si>
+    <t>Rack 1-B Drawer 5</t>
+  </si>
+  <si>
+    <t>Rack 1-C</t>
+  </si>
+  <si>
+    <t>Rack 1-C Drawer 6</t>
+  </si>
+  <si>
+    <t>Rack 1-C Drawer 5</t>
+  </si>
+  <si>
+    <t>Rack 1-D</t>
+  </si>
+  <si>
+    <t>Rack 2-A</t>
+  </si>
+  <si>
+    <t>Rack 2-B</t>
+  </si>
+  <si>
+    <t>Rack 2-C</t>
+  </si>
+  <si>
+    <t>Rack 2-D</t>
+  </si>
+  <si>
+    <t>Rack 3-A</t>
+  </si>
+  <si>
+    <t>Rack 3-B</t>
+  </si>
+  <si>
+    <t>Rack 3-C</t>
+  </si>
+  <si>
+    <t>Rack 3-D</t>
+  </si>
+  <si>
+    <t>Rack 4-A</t>
+  </si>
+  <si>
+    <t>Rack 4-B</t>
+  </si>
+  <si>
+    <t>Rack 4-C</t>
+  </si>
+  <si>
+    <t>Rack 4-D</t>
+  </si>
+  <si>
+    <t>Rack 5-A</t>
+  </si>
+  <si>
+    <t>Rack 5-B</t>
+  </si>
+  <si>
+    <t>Rack 5-C</t>
+  </si>
+  <si>
+    <t>Rack 5-D</t>
+  </si>
+  <si>
+    <t>Rack 6-A/C</t>
+  </si>
+  <si>
+    <t>Rack 6-C</t>
+  </si>
+  <si>
+    <t>Rack 6-D</t>
+  </si>
+  <si>
+    <t>Rack 7-A</t>
+  </si>
+  <si>
+    <t>Rack 7-B</t>
+  </si>
+  <si>
+    <t>Rack 7-C</t>
+  </si>
+  <si>
+    <t>Rack 7-D</t>
+  </si>
+  <si>
+    <t>Rack 8-A</t>
+  </si>
+  <si>
+    <t>Rack 8-B</t>
+  </si>
+  <si>
+    <t>Rack 8-C</t>
+  </si>
+  <si>
+    <t>Rack 8-D</t>
+  </si>
+  <si>
+    <t>Rack 8-E</t>
+  </si>
+  <si>
+    <t>Rack 9-A</t>
+  </si>
+  <si>
+    <t>Rack 9-B</t>
+  </si>
+  <si>
+    <t>Rack 9-C</t>
+  </si>
+  <si>
+    <t>Valve Rack 1</t>
+  </si>
+  <si>
+    <t>Warehouse Extension</t>
+  </si>
+  <si>
+    <t>R 4-D</t>
+  </si>
+  <si>
+    <t>R 4-C</t>
+  </si>
+  <si>
+    <t>BOX SEM</t>
+  </si>
+  <si>
+    <t>beside rack 1</t>
+  </si>
+  <si>
+    <t>R 4-B</t>
+  </si>
+  <si>
+    <t>R 4-B/Drawer</t>
+  </si>
+  <si>
+    <t>R 4-C  Drawer</t>
+  </si>
+  <si>
+    <t>SR Cabinet 1-A</t>
+  </si>
+  <si>
+    <t>Side Wall Rack</t>
+  </si>
+  <si>
+    <t>Drawer 2.1 Side Wall</t>
+  </si>
+  <si>
+    <t>Rack 5-A/B/C</t>
+  </si>
+  <si>
+    <t>Beside Wall &amp; Rack 5</t>
+  </si>
+  <si>
+    <t>Rack 6-B</t>
+  </si>
+  <si>
+    <t>O-ring Box #6</t>
+  </si>
+  <si>
+    <t>Drawer 1.1 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 1.2 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 1.3 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 1.4 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 1.5 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 2.2 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 2.3 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 2.4 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 2.5 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 3.1 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 3.2 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 3.3 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 3.5 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 3.4 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 4.1 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 4.2 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 4.3 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 4.5 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 5.1 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 5.2 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 5.3 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 5.4 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 5.5 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 6.1 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 4.4 Side Wall</t>
+  </si>
+  <si>
+    <t>Valve Rack 2</t>
+  </si>
+  <si>
+    <t>Rack beside Valve Rack 1</t>
+  </si>
+  <si>
+    <t>Valve &amp; Injector Rack</t>
+  </si>
+  <si>
+    <t>Governor Box</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-D</t>
+  </si>
+  <si>
+    <t>SR Rack 1-A</t>
+  </si>
+  <si>
+    <t>SR Rack 1-B</t>
+  </si>
+  <si>
+    <t>SR Rack 1-C</t>
+  </si>
+  <si>
+    <t>SR Cabinet 1-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 1.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.1</t>
+  </si>
+  <si>
+    <t>aux Rack 4-C Drawer 2.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C  Drawer 2.5</t>
+  </si>
+  <si>
+    <t>aux Rack 4-C Drawer 3.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 2.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.6</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Air Branches for Cylinder Cove</t>
+  </si>
+  <si>
+    <t>Automatic Starting-Air Stop VA</t>
+  </si>
+  <si>
+    <t>Bearing Casing for Cylinder CO</t>
+  </si>
+  <si>
+    <t>Cam Case Cover</t>
+  </si>
+  <si>
+    <t>Camshaft</t>
+  </si>
+  <si>
+    <t>Control Element</t>
+  </si>
+  <si>
+    <t>Control Element Cabinet</t>
+  </si>
+  <si>
+    <t>Cooling Water Piping for Fuel Injector</t>
+  </si>
+  <si>
+    <t>Crankcase Vent</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>Cylinder Cover</t>
+  </si>
+  <si>
+    <t>Cylinder Liner</t>
+  </si>
+  <si>
+    <t>Cylinder Lubricating Pump Driv</t>
+  </si>
+  <si>
+    <t>Exhaust Piping (L = Left)</t>
+  </si>
+  <si>
+    <t>External Thrust Bearing/Outbo</t>
+  </si>
+  <si>
+    <t>Engine Control Valves</t>
+  </si>
+  <si>
+    <t>Fuel Injection Pump (Strength)</t>
+  </si>
+  <si>
+    <t>Fuel Injection Pump Control Li</t>
+  </si>
+  <si>
+    <t>Fuel Injection Pump Delivery P</t>
+  </si>
+  <si>
+    <t>Fuel Injection Pump Driving GE</t>
+  </si>
+  <si>
+    <t>Fuel Injection Valve</t>
+  </si>
+  <si>
+    <t>Fuel Pressure Pipe</t>
+  </si>
+  <si>
+    <t>Fuel System</t>
+  </si>
+  <si>
+    <t>Governing Linkage</t>
+  </si>
+  <si>
+    <t>Governor Drive</t>
+  </si>
+  <si>
+    <t>Indicator Cock/Valve</t>
+  </si>
+  <si>
+    <t>Inlet and Exhaust Valve</t>
+  </si>
+  <si>
+    <t>Inspection Door w/ Relief Valve</t>
+  </si>
+  <si>
+    <t>Lube Oil Pipes Valve Gear Lubricant</t>
+  </si>
+  <si>
+    <t>Oil Pump</t>
+  </si>
+  <si>
+    <t>Overspeed Safety Device (w/o s</t>
+  </si>
+  <si>
+    <t>Raw Water Pump</t>
+  </si>
+  <si>
+    <t>Relief Valve</t>
+  </si>
+  <si>
+    <t>Reversing Gear</t>
+  </si>
+  <si>
+    <t>Safety Device For Fuel Cut</t>
+  </si>
+  <si>
+    <t>Safety Valve</t>
+  </si>
+  <si>
+    <t>Servomotor For Camshaft Display</t>
+  </si>
+  <si>
+    <t>Starting Air Apparatus</t>
+  </si>
+  <si>
+    <t>Starting Air Distributor</t>
+  </si>
+  <si>
+    <t>Starting Device</t>
+  </si>
+  <si>
+    <t>Starting Valve (Dummy Valve)</t>
+  </si>
+  <si>
+    <t>Supplemental Bearing of Camshaft</t>
+  </si>
+  <si>
+    <t>Sulzer Bellows</t>
+  </si>
+  <si>
+    <t>Tachogenerator</t>
+  </si>
+  <si>
+    <t>Thrust Bearing For Crankshaft</t>
+  </si>
+  <si>
+    <t>Valve Drive</t>
+  </si>
+  <si>
+    <t>Valve Gear?Case</t>
+  </si>
+  <si>
+    <t>Visual Flow Control For Cylind</t>
+  </si>
+  <si>
+    <t>AIR COOLER SUPPORT-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>AIR COOLER-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>AIR DISTRIBUTOR DRIVE</t>
+  </si>
+  <si>
+    <t>AIR INTAKE MANIFOLD</t>
+  </si>
+  <si>
+    <t>ANCHOR BEARING</t>
+  </si>
+  <si>
+    <t>ANTI-VIBRATION DAMPER</t>
+  </si>
+  <si>
+    <t>AUXILIARIES DRIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRING GEAR </t>
+  </si>
+  <si>
+    <t>BBC TURBO-BLOWER-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>BELLOWS EXHAUST GAS MANIFOLD</t>
+  </si>
+  <si>
+    <t>BOSS FOR THERMOMETER</t>
+  </si>
+  <si>
+    <t>CAM SHAFT</t>
+  </si>
+  <si>
+    <t>CAM SHAFT COVER</t>
+  </si>
+  <si>
+    <t>CAMSHAFT FOR GENERATOR</t>
+  </si>
+  <si>
+    <t>CAMSHAFT THRUST BEARING</t>
+  </si>
+  <si>
+    <t>CIRCLIP</t>
+  </si>
+  <si>
+    <t>CLEANING PIPES FOR T.B - OPPOSITE END TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>CONNECTION BETWEEN AIR COOLER AND AIR MANIFOLD</t>
+  </si>
+  <si>
+    <t>CONTACT LIFTING</t>
+  </si>
+  <si>
+    <t>COUPLING SIDE COVER</t>
+  </si>
+  <si>
+    <t>CRANKCASE OIL-VENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRIVEN WATER PUMPS </t>
+  </si>
+  <si>
+    <t>END COVER</t>
+  </si>
+  <si>
+    <t>EXHAUST GAS MANIFOLD</t>
+  </si>
+  <si>
+    <t>EXHAUST MANIFOLD</t>
+  </si>
+  <si>
+    <t>EXTERNAL CAMSHAFT BEARING</t>
+  </si>
+  <si>
+    <t>FUEL INJECTION PIPE</t>
+  </si>
+  <si>
+    <t>FUEL OIL PIPE</t>
+  </si>
+  <si>
+    <t>FUEL PUMP DRIVE</t>
+  </si>
+  <si>
+    <t>INJECTION PUMP-CONTROL AUXILIARY APPARATUS</t>
+  </si>
+  <si>
+    <t>INSULATING LAGGING</t>
+  </si>
+  <si>
+    <t>INTAKE CONNECTION BETWEEN AIR COOLER AND ENGINE</t>
+  </si>
+  <si>
+    <t>INTAKE CONNECTION BETWEEN T.B AND AIR COOLER</t>
+  </si>
+  <si>
+    <t>L.O PRESSURE DROP TRIP LINKAGE</t>
+  </si>
+  <si>
+    <t>LUBE OIL PUMP</t>
+  </si>
+  <si>
+    <t>OIL PAN</t>
+  </si>
+  <si>
+    <t>RECONDITIONING</t>
+  </si>
+  <si>
+    <t>REGULATING DEVICE/FUEL INJECTION PUMP CONTROL LINKAGE</t>
+  </si>
+  <si>
+    <t>RETAINING RING</t>
+  </si>
+  <si>
+    <t>RIGHT HAND CAMSHAFT EXTRA BEARING</t>
+  </si>
+  <si>
+    <t>SOUND-PROOFING FOR CONNECTION BOXES</t>
+  </si>
+  <si>
+    <t>SPECIAL LUB-OIL RETURN PIPE</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY REGULATING DEVICE</t>
+  </si>
+  <si>
+    <t>SUPPLEMENTARY REGULATING DEVICE/SAFETY DEVICE FOR FUEL CUT</t>
+  </si>
+  <si>
+    <t>TB SUPPORT-OPPOSITE SIDE TO TIMING GEAR</t>
+  </si>
+  <si>
+    <t>UNIDENTIFIED ORINGS</t>
+  </si>
+  <si>
+    <t>VALVE CAGE</t>
+  </si>
+  <si>
+    <t>Main Starting Valve</t>
+  </si>
+  <si>
+    <t>Safety Valve for Cylinder</t>
+  </si>
+  <si>
+    <t>WATER INLET &amp; OUTLET CONNECTION</t>
+  </si>
+  <si>
+    <t>FOUNDATION</t>
+  </si>
+  <si>
+    <t>ENGINE LEVELING</t>
+  </si>
+  <si>
+    <t>MAIN ENGINE</t>
+  </si>
+  <si>
+    <t>ELECTRIC GENERATOR</t>
+  </si>
+  <si>
+    <t>EXHAUST</t>
+  </si>
+  <si>
+    <t>AIR COOLER</t>
+  </si>
+  <si>
+    <t>COOLER</t>
+  </si>
+  <si>
+    <t>CAM SHAFT SUPPLEMENTARY BEARING</t>
+  </si>
+  <si>
+    <t>COUPLING OIL SEAL</t>
+  </si>
+  <si>
+    <t>SEALS</t>
+  </si>
+  <si>
+    <t>Unidentified Cotter Pin</t>
+  </si>
+  <si>
+    <t>Unidentified Washer</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>Chem - Stg</t>
+  </si>
+  <si>
+    <t>WH - Bldg.</t>
+  </si>
+  <si>
+    <t>WH - Rm1</t>
+  </si>
+  <si>
+    <t>WH - Rm2</t>
+  </si>
+  <si>
+    <t>WH - Rm3</t>
+  </si>
+  <si>
+    <t>WH - Extn</t>
+  </si>
+  <si>
+    <t>WH - Extn A</t>
+  </si>
+  <si>
+    <t>WH - Extn B</t>
+  </si>
+  <si>
+    <t>WH - Sec 1</t>
+  </si>
+  <si>
+    <t>WH - Sec 2</t>
+  </si>
+  <si>
+    <t>WH - Sec 3</t>
+  </si>
+  <si>
+    <t>WH - Sec 4</t>
+  </si>
+  <si>
+    <t>PRO-WH-RM1</t>
+  </si>
+  <si>
+    <t>PRO-WH-RM2</t>
+  </si>
+  <si>
+    <t>PRO-WH-RM3</t>
+  </si>
+  <si>
+    <t>CV Bay 1-1</t>
+  </si>
+  <si>
+    <t>CV Bay 1-2</t>
+  </si>
+  <si>
+    <t>CV Bay 1-3</t>
+  </si>
+  <si>
+    <t>CV Bay 1-4</t>
+  </si>
+  <si>
+    <t>CV Bay 1-5</t>
+  </si>
+  <si>
+    <t>CV Bay 1-6</t>
+  </si>
+  <si>
+    <t>CV Bay 1-7</t>
+  </si>
+  <si>
+    <t>CV Bay 1-8</t>
+  </si>
+  <si>
+    <t>CV Bay 1-9</t>
+  </si>
+  <si>
+    <t>CV Bay 1-10</t>
+  </si>
+  <si>
+    <t>CV 11</t>
+  </si>
+  <si>
+    <t>CV 12</t>
+  </si>
+  <si>
+    <t>CV 13</t>
+  </si>
+  <si>
+    <t>CV Bay 2-14</t>
+  </si>
+  <si>
+    <t>CV Bay 2-15</t>
+  </si>
+  <si>
+    <t>CV Bay 2-16</t>
+  </si>
+  <si>
+    <t>CV Bay 2-17</t>
+  </si>
+  <si>
+    <t>CV Bay 2-18</t>
+  </si>
+  <si>
+    <t>CV Bay 2-19</t>
+  </si>
+  <si>
+    <t>CV Bay 2-20</t>
+  </si>
+  <si>
+    <t>CV Bay 2-21</t>
+  </si>
+  <si>
+    <t>CV Bay 2-22</t>
+  </si>
+  <si>
+    <t>CV Yard</t>
+  </si>
+  <si>
+    <t>Oring Box 1</t>
+  </si>
+  <si>
+    <t>Oring Box 2</t>
+  </si>
+  <si>
+    <t>Oring Box 3</t>
   </si>
   <si>
     <t>Oring Box 4</t>
   </si>
   <si>
+    <t>Oring Box 5</t>
+  </si>
+  <si>
+    <t>Oring Box 6</t>
+  </si>
+  <si>
     <t>Oring Box 7</t>
   </si>
   <si>
-    <t>Oring Box# 2</t>
-  </si>
-  <si>
-    <t>Oring Box# 3</t>
-  </si>
-  <si>
-    <t>Oring Box# 8</t>
-  </si>
-  <si>
-    <t>Oring Box# 9</t>
-  </si>
-  <si>
-    <t>Oring Box#3</t>
-  </si>
-  <si>
-    <t>Oring Drawer 1</t>
-  </si>
-  <si>
-    <t>Oring Drawer 2</t>
-  </si>
-  <si>
-    <t>Oring Drawer 3</t>
-  </si>
-  <si>
-    <t>Oring Drawer 4</t>
-  </si>
-  <si>
-    <t>Oring Drawer 5</t>
-  </si>
-  <si>
-    <t>Oring Drawer2</t>
-  </si>
-  <si>
-    <t>Rack 1</t>
-  </si>
-  <si>
-    <t>Rack 1/Drawer 2</t>
-  </si>
-  <si>
-    <t>Rack 10-A</t>
-  </si>
-  <si>
-    <t>Rack 10-B</t>
-  </si>
-  <si>
-    <t>Rack 10-C</t>
-  </si>
-  <si>
-    <t>Rack 11-A</t>
-  </si>
-  <si>
-    <t>Rack 11-B</t>
-  </si>
-  <si>
-    <t>Rack 1-A</t>
-  </si>
-  <si>
-    <t>Rack 1-B</t>
-  </si>
-  <si>
-    <t>Rack 1-B Drawer 1</t>
-  </si>
-  <si>
-    <t>Rack 1-B Drawer 2</t>
-  </si>
-  <si>
-    <t>Rack 1-B/ Drawer 2</t>
-  </si>
-  <si>
-    <t>Rack 1-B/Drawer 1</t>
-  </si>
-  <si>
-    <t>Rack 1-B/Drawer 2</t>
-  </si>
-  <si>
-    <t>Rack 1-B/Drawer 3</t>
-  </si>
-  <si>
-    <t>Rack 1-B/Drawer 4</t>
-  </si>
-  <si>
-    <t>Rack 1-B/Drawer 5</t>
-  </si>
-  <si>
-    <t>Rack 1-C</t>
-  </si>
-  <si>
-    <t>Rack 1-C Drawer 6</t>
-  </si>
-  <si>
-    <t>Rack 1-C/Drawer 5</t>
-  </si>
-  <si>
-    <t>Rack 1-C/Drawer 6</t>
-  </si>
-  <si>
-    <t>Rack 1-D</t>
-  </si>
-  <si>
-    <t>Rack 2-A</t>
-  </si>
-  <si>
-    <t>Rack 2-B</t>
-  </si>
-  <si>
-    <t>Rack 2-C</t>
-  </si>
-  <si>
-    <t>Rack 2-D</t>
-  </si>
-  <si>
-    <t>Rack 3-A</t>
-  </si>
-  <si>
-    <t>Rack 3-B</t>
-  </si>
-  <si>
-    <t>Rack 3-C</t>
-  </si>
-  <si>
-    <t>Rack 3-D</t>
-  </si>
-  <si>
-    <t>Rack 4-A</t>
-  </si>
-  <si>
-    <t>Rack 4-B</t>
-  </si>
-  <si>
-    <t>Rack 4-C</t>
-  </si>
-  <si>
-    <t>Rack 4-D</t>
-  </si>
-  <si>
-    <t>Rack 5-A</t>
-  </si>
-  <si>
-    <t>Rack 5-B</t>
-  </si>
-  <si>
-    <t>Rack 5-C</t>
-  </si>
-  <si>
-    <t>Rack 5-D</t>
-  </si>
-  <si>
-    <t>Rack 6-A/C</t>
-  </si>
-  <si>
-    <t>Rack 6-C</t>
-  </si>
-  <si>
-    <t>Rack 6-D</t>
-  </si>
-  <si>
-    <t>Rack 7-A</t>
-  </si>
-  <si>
-    <t>Rack 7-B</t>
-  </si>
-  <si>
-    <t>Rack 7-C</t>
-  </si>
-  <si>
-    <t>Rack 7-D</t>
-  </si>
-  <si>
-    <t>Rack 8-A</t>
-  </si>
-  <si>
-    <t>Rack 8-B</t>
-  </si>
-  <si>
-    <t>Rack 8-C</t>
-  </si>
-  <si>
-    <t>Rack 8-D</t>
-  </si>
-  <si>
-    <t>Rack 8-E</t>
-  </si>
-  <si>
-    <t>Rack 9-A</t>
-  </si>
-  <si>
-    <t>Rack 9-B</t>
-  </si>
-  <si>
-    <t>Rack 9-C</t>
-  </si>
-  <si>
-    <t>Rack1-A</t>
-  </si>
-  <si>
-    <t>Rack1-B</t>
-  </si>
-  <si>
-    <t>Valve Rack</t>
-  </si>
-  <si>
-    <t>Warehouse Extension</t>
-  </si>
-  <si>
-    <t>R 4-D</t>
-  </si>
-  <si>
-    <t>R 4-C</t>
-  </si>
-  <si>
-    <t>BOX SEM</t>
-  </si>
-  <si>
-    <t>beside rack 1</t>
-  </si>
-  <si>
-    <t>R 4-B</t>
-  </si>
-  <si>
-    <t>R 4-B/Drawer</t>
-  </si>
-  <si>
-    <t>R 4-C  Drawer</t>
-  </si>
-  <si>
-    <t>Group Name</t>
-  </si>
-  <si>
-    <t>Air Branches for Cylinder Cove</t>
-  </si>
-  <si>
-    <t>Automatic Starting-Air Stop VA</t>
-  </si>
-  <si>
-    <t>Bearing Casing for Cylinder CO</t>
-  </si>
-  <si>
-    <t>Cam Case Cover</t>
-  </si>
-  <si>
-    <t>Camshaft</t>
-  </si>
-  <si>
-    <t>Control Element</t>
-  </si>
-  <si>
-    <t>Control Element Cabinet</t>
-  </si>
-  <si>
-    <t>Cooling Water Piping for Fuel Injector</t>
-  </si>
-  <si>
-    <t>Crankcase Vent</t>
-  </si>
-  <si>
-    <t>Cylinder</t>
-  </si>
-  <si>
-    <t>Cylinder Cover</t>
-  </si>
-  <si>
-    <t>Cylinder Liner</t>
-  </si>
-  <si>
-    <t>Cylinder Lubricating Pump Driv</t>
-  </si>
-  <si>
-    <t>Exhaust Piping (L = Left)</t>
-  </si>
-  <si>
-    <t>External Thrust Bearing/Outbo</t>
-  </si>
-  <si>
-    <t>Engine Control Valves</t>
-  </si>
-  <si>
-    <t>Fuel Injection Pump (Strength)</t>
-  </si>
-  <si>
-    <t>Fuel Injection Pump Control Li</t>
-  </si>
-  <si>
-    <t>Fuel Injection Pump Delivery P</t>
-  </si>
-  <si>
-    <t>Fuel Injection Pump Driving GE</t>
-  </si>
-  <si>
-    <t>Fuel Injection Valve</t>
-  </si>
-  <si>
-    <t>Fuel Pressure Pipe</t>
-  </si>
-  <si>
-    <t>Fuel System</t>
-  </si>
-  <si>
-    <t>Governing Linkage</t>
-  </si>
-  <si>
-    <t>Governor Drive</t>
-  </si>
-  <si>
-    <t>Indicator Cock/Valve</t>
-  </si>
-  <si>
-    <t>Inlet and Exhaust Valve</t>
-  </si>
-  <si>
-    <t>Inspection Door w/ Relief Valve</t>
-  </si>
-  <si>
-    <t>Lube Oil Pipes Valve Gear Lubricant</t>
-  </si>
-  <si>
-    <t>Oil Pump</t>
-  </si>
-  <si>
-    <t>Overspeed Safety Device (w/o s</t>
-  </si>
-  <si>
-    <t>Raw Water Pump</t>
-  </si>
-  <si>
-    <t>Relief Valve</t>
-  </si>
-  <si>
-    <t>Reversing Gear</t>
-  </si>
-  <si>
-    <t>Safety Device For Fuel Cut</t>
-  </si>
-  <si>
-    <t>Safety Valve</t>
-  </si>
-  <si>
-    <t>Servomotor For Camshaft Display</t>
-  </si>
-  <si>
-    <t>Starting Air Apparatus</t>
-  </si>
-  <si>
-    <t>Starting Air Distributor Valve</t>
-  </si>
-  <si>
-    <t>Starting Device</t>
-  </si>
-  <si>
-    <t>Starting Valve (Dummy Valve)</t>
-  </si>
-  <si>
-    <t>Supplemental Bearing of Camshaft</t>
-  </si>
-  <si>
-    <t>Sulzer Bellows</t>
-  </si>
-  <si>
-    <t>Tachogenerator</t>
-  </si>
-  <si>
-    <t>Thrust Bearing For Crankshaft</t>
-  </si>
-  <si>
-    <t>Valve Drive</t>
-  </si>
-  <si>
-    <t>Valve Gear?Case</t>
-  </si>
-  <si>
-    <t>Vibaration Damper</t>
-  </si>
-  <si>
-    <t>Visual Flow Control For Cylind</t>
-  </si>
-  <si>
-    <t>AIR COOLER SUPPORT-OPPOSITE SIDE TO TIMING GEAR</t>
-  </si>
-  <si>
-    <t>AIR COOLER-OPPOSITE SIDE TO TIMING GEAR</t>
-  </si>
-  <si>
-    <t>AIR DISTRIBUTOR DRIVE</t>
-  </si>
-  <si>
-    <t>AIR INTAKE MANIFOLD</t>
-  </si>
-  <si>
-    <t>ANCHOR BEARING</t>
-  </si>
-  <si>
-    <t>ANTI-VIBRATION DAMPER</t>
-  </si>
-  <si>
-    <t>AUXILIARIES DRIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARRING GEAR </t>
-  </si>
-  <si>
-    <t>BBC TURBO-BLOWER-OPPOSITE SIDE TO TIMING GEAR</t>
-  </si>
-  <si>
-    <t>BELLOWS EXHAUST GAS MANIFOLD</t>
-  </si>
-  <si>
-    <t>BOSS FOR THERMOMETER</t>
-  </si>
-  <si>
-    <t>CAM SHAFT</t>
-  </si>
-  <si>
-    <t>CAM SHAFT COVER</t>
-  </si>
-  <si>
-    <t>CAMSHAFT FOR GENERATOR</t>
-  </si>
-  <si>
-    <t>CAMSHAFT THRUST BEARING</t>
-  </si>
-  <si>
-    <t>CIRCLIP</t>
-  </si>
-  <si>
-    <t>CLEANING PIPES FOR T.B - OPPOSITE END TO TIMING GEAR</t>
-  </si>
-  <si>
-    <t>CONNECTION BETWEEN AIR COOLER AND AIR MANIFOLD</t>
-  </si>
-  <si>
-    <t>CONTACT LIFTING</t>
-  </si>
-  <si>
-    <t>COUPLING SIDE COVER</t>
-  </si>
-  <si>
-    <t>CRANKCASE OIL-VENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRIVEN WATER PUMPS </t>
-  </si>
-  <si>
-    <t>END COVER</t>
-  </si>
-  <si>
-    <t>EXHAUST GAS MANIFOLD</t>
-  </si>
-  <si>
-    <t>EXHAUST MANIFOLD</t>
-  </si>
-  <si>
-    <t>EXTERNAL CAMSHAFT BEARING</t>
-  </si>
-  <si>
-    <t>FUEL INJECTION PIPE</t>
-  </si>
-  <si>
-    <t>FUEL OIL PIPE</t>
-  </si>
-  <si>
-    <t>FUEL PUMP DRIVE</t>
-  </si>
-  <si>
-    <t>INJECTION PUMP-CONTROL AUXILIARY APPARATUS</t>
-  </si>
-  <si>
-    <t>INSULATING LAGGING</t>
-  </si>
-  <si>
-    <t>INTAKE CONNECTION BETWEEN AIR COOLER AND ENGINE</t>
-  </si>
-  <si>
-    <t>INTAKE CONNECTION BETWEEN T.B AND AIR COOLER</t>
-  </si>
-  <si>
-    <t>L.O PRESSURE DROP TRIP LINKAGE</t>
-  </si>
-  <si>
-    <t>LUBE OIL PUMP</t>
-  </si>
-  <si>
-    <t>OIL PAN</t>
-  </si>
-  <si>
-    <t>RECONDITIONING</t>
-  </si>
-  <si>
-    <t>REGULATING DEVICE/FUEL INJECTION PUMP CONTROL LINKAGE</t>
-  </si>
-  <si>
-    <t>RETAINING RING</t>
-  </si>
-  <si>
-    <t>RIGHT HAND CAMSHAFT EXTRA BEARING</t>
-  </si>
-  <si>
-    <t>SOUND-PROOFING FOR CONNECTION BOXES</t>
-  </si>
-  <si>
-    <t>SPECIAL LUB-OIL RETURN PIPE</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTARY REGULATING DEVICE</t>
-  </si>
-  <si>
-    <t>SUPPLEMENTARY REGULATING DEVICE/SAFETY DEVICE FOR FUEL CUT</t>
-  </si>
-  <si>
-    <t>TB SUPPORT-OPPOSITE SIDE TO TIMING GEAR</t>
-  </si>
-  <si>
-    <t>UNIDENTIFIED ORINGS</t>
-  </si>
-  <si>
-    <t>VALVE CAGE</t>
-  </si>
-  <si>
-    <t>Main Starting Valve</t>
-  </si>
-  <si>
-    <t>Safety Valve for Cylinder</t>
-  </si>
-  <si>
-    <t>WATER INLET &amp; OUTLET CONNECTION</t>
-  </si>
-  <si>
-    <t>Location Name</t>
-  </si>
-  <si>
-    <t>CABINET</t>
-  </si>
-  <si>
-    <t>Chem - Stg</t>
-  </si>
-  <si>
-    <t>WH - Bldg.</t>
-  </si>
-  <si>
-    <t>WH - Rm1</t>
-  </si>
-  <si>
-    <t>WH - Rm2</t>
-  </si>
-  <si>
-    <t>WH - Rm3</t>
-  </si>
-  <si>
-    <t>WH - Extn</t>
-  </si>
-  <si>
-    <t>WH - Extn A</t>
-  </si>
-  <si>
-    <t>WH - Extn B</t>
-  </si>
-  <si>
-    <t>WH - Sec 1</t>
-  </si>
-  <si>
-    <t>WH - Sec 2</t>
-  </si>
-  <si>
-    <t>WH - Sec 3</t>
-  </si>
-  <si>
-    <t>WH - Sec 4</t>
-  </si>
-  <si>
-    <t>PRO-WH-RM1</t>
-  </si>
-  <si>
-    <t>PRO-WH-RM2</t>
-  </si>
-  <si>
-    <t>PRO-WH-RM3</t>
-  </si>
-  <si>
-    <t>CV Bay 1-1</t>
-  </si>
-  <si>
-    <t>CV Bay 1-2</t>
-  </si>
-  <si>
-    <t>CV Bay 1-3</t>
-  </si>
-  <si>
-    <t>CV Bay 1-4</t>
-  </si>
-  <si>
-    <t>CV Bay 1-5</t>
-  </si>
-  <si>
-    <t>CV Bay 1-6</t>
-  </si>
-  <si>
-    <t>CV Bay 1-7</t>
-  </si>
-  <si>
-    <t>CV Bay 1-8</t>
-  </si>
-  <si>
-    <t>CV Bay 1-9</t>
-  </si>
-  <si>
-    <t>CV Bay 1-10</t>
-  </si>
-  <si>
-    <t>CV 11</t>
-  </si>
-  <si>
-    <t>CV 12</t>
-  </si>
-  <si>
-    <t>CV 13</t>
-  </si>
-  <si>
-    <t>CV Bay 2-14</t>
-  </si>
-  <si>
-    <t>CV Bay 2-15</t>
-  </si>
-  <si>
-    <t>CV Bay 2-16</t>
-  </si>
-  <si>
-    <t>CV Bay 2-17</t>
-  </si>
-  <si>
-    <t>CV Bay 2-18</t>
-  </si>
-  <si>
-    <t>CV Bay 2-19</t>
-  </si>
-  <si>
-    <t>CV Bay 2-20</t>
-  </si>
-  <si>
-    <t>CV Bay 2-21</t>
-  </si>
-  <si>
-    <t>CV Bay 2-22</t>
-  </si>
-  <si>
-    <t>CV Yard</t>
-  </si>
-  <si>
-    <t>Oring Box 1</t>
-  </si>
-  <si>
-    <t>Oring Box 2</t>
-  </si>
-  <si>
-    <t>Oring Box 3</t>
-  </si>
-  <si>
-    <t>Oring Box 5</t>
-  </si>
-  <si>
-    <t>Oring Box 6</t>
-  </si>
-  <si>
     <t>Oring Box 8</t>
   </si>
   <si>
@@ -1583,6 +1802,12 @@
   </si>
   <si>
     <t>Oring Drawer</t>
+  </si>
+  <si>
+    <t>Stock Room</t>
+  </si>
+  <si>
+    <t>Cabinet No. 1-B</t>
   </si>
   <si>
     <t>Warehouse ID</t>
@@ -2040,10 +2265,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B183" sqref="B183"/>
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3258,510 +3483,417 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3">
-        <v>84</v>
-      </c>
-      <c r="B125" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3">
-        <v>90</v>
-      </c>
-      <c r="B131" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3">
-        <v>97</v>
-      </c>
-      <c r="B138" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3">
-        <v>99</v>
-      </c>
-      <c r="B140" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3">
-        <v>110</v>
-      </c>
-      <c r="B151" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3">
-        <v>111</v>
-      </c>
-      <c r="B152" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3">
-        <v>118</v>
-      </c>
-      <c r="B159" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3">
-        <v>119</v>
-      </c>
-      <c r="B160" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3">
-        <v>120</v>
-      </c>
-      <c r="B161" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3">
-        <v>125</v>
-      </c>
-      <c r="B166" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="3">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3">
-        <v>129</v>
-      </c>
-      <c r="B170" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="3">
-        <v>130</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="3">
-        <v>131</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" s="3">
-        <v>132</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="3">
-        <v>133</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="3">
-        <v>134</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="3">
-        <v>135</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="3">
-        <v>136</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" s="3">
-        <v>137</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="3">
-        <v>138</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="3">
-        <v>139</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="3">
-        <v>140</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="3">
-        <v>141</v>
-      </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="3">
-        <v>142</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C183" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3784,7 +3916,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3797,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3805,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3813,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3821,7 +3953,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3829,7 +3961,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3837,7 +3969,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3845,7 +3977,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3853,7 +3985,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3861,7 +3993,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3869,7 +4001,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3877,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3885,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3893,7 +4025,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3901,7 +4033,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3909,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3917,7 +4049,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3925,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3933,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3941,7 +4073,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3949,7 +4081,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3957,7 +4089,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3965,7 +4097,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3973,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3981,7 +4113,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3989,7 +4121,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3997,7 +4129,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4005,7 +4137,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4013,7 +4145,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4021,7 +4153,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4029,7 +4161,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4037,7 +4169,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4045,7 +4177,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4053,7 +4185,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4061,7 +4193,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4069,7 +4201,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4077,7 +4209,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4085,7 +4217,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4093,7 +4225,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4101,7 +4233,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4109,7 +4241,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4117,7 +4249,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4125,7 +4257,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4133,7 +4265,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4141,7 +4273,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4149,7 +4281,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4157,7 +4289,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4165,7 +4297,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4173,7 +4305,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4181,7 +4313,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4189,7 +4321,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4197,7 +4329,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4205,7 +4337,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4213,7 +4345,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4221,7 +4353,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4229,7 +4361,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4237,7 +4369,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4245,7 +4377,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4253,7 +4385,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4261,7 +4393,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4269,7 +4401,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4277,7 +4409,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4285,7 +4417,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4293,7 +4425,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4301,7 +4433,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4309,7 +4441,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4317,7 +4449,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4325,7 +4457,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4333,7 +4465,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4341,7 +4473,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4349,7 +4481,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4357,7 +4489,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4365,7 +4497,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4373,7 +4505,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4381,340 +4513,340 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
         <v>341</v>
@@ -4722,7 +4854,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
         <v>342</v>
@@ -4730,7 +4862,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
         <v>343</v>
@@ -4738,7 +4870,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
         <v>344</v>
@@ -4746,7 +4878,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
         <v>345</v>
@@ -4754,7 +4886,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
         <v>346</v>
@@ -4762,7 +4894,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
         <v>347</v>
@@ -4770,7 +4902,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>348</v>
@@ -4778,7 +4910,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>349</v>
@@ -4786,7 +4918,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
         <v>350</v>
@@ -4794,7 +4926,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>351</v>
@@ -4802,7 +4934,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>352</v>
@@ -4810,7 +4942,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>353</v>
@@ -4818,7 +4950,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
         <v>354</v>
@@ -4826,7 +4958,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
         <v>355</v>
@@ -4834,7 +4966,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
         <v>356</v>
@@ -4842,7 +4974,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
         <v>357</v>
@@ -4850,7 +4982,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
         <v>358</v>
@@ -4858,7 +4990,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
         <v>359</v>
@@ -4866,7 +4998,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
         <v>360</v>
@@ -4874,7 +5006,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
         <v>361</v>
@@ -4882,7 +5014,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
         <v>362</v>
@@ -4890,7 +5022,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
         <v>363</v>
@@ -4898,7 +5030,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
         <v>364</v>
@@ -4906,7 +5038,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
         <v>365</v>
@@ -4914,7 +5046,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
         <v>366</v>
@@ -4922,7 +5054,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B142" t="s">
         <v>367</v>
@@ -4930,7 +5062,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
         <v>368</v>
@@ -4938,7 +5070,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B144" t="s">
         <v>369</v>
@@ -4946,7 +5078,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B145" t="s">
         <v>370</v>
@@ -4954,10 +5086,498 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B146" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>155</v>
+      </c>
+      <c r="B147" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>156</v>
+      </c>
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>160</v>
+      </c>
+      <c r="B152" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>161</v>
+      </c>
+      <c r="B153" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>162</v>
+      </c>
+      <c r="B154" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>163</v>
+      </c>
+      <c r="B155" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>165</v>
+      </c>
+      <c r="B157" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>166</v>
+      </c>
+      <c r="B158" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>167</v>
+      </c>
+      <c r="B159" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>168</v>
+      </c>
+      <c r="B160" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>169</v>
+      </c>
+      <c r="B161" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>171</v>
+      </c>
+      <c r="B163" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>172</v>
+      </c>
+      <c r="B164" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>173</v>
+      </c>
+      <c r="B165" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>174</v>
+      </c>
+      <c r="B166" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>175</v>
+      </c>
+      <c r="B167" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>176</v>
+      </c>
+      <c r="B168" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>177</v>
+      </c>
+      <c r="B169" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>178</v>
+      </c>
+      <c r="B170" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>179</v>
+      </c>
+      <c r="B171" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>180</v>
+      </c>
+      <c r="B172" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>181</v>
+      </c>
+      <c r="B173" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>182</v>
+      </c>
+      <c r="B174" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>183</v>
+      </c>
+      <c r="B175" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>184</v>
+      </c>
+      <c r="B176" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>185</v>
+      </c>
+      <c r="B177" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>186</v>
+      </c>
+      <c r="B178" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>187</v>
+      </c>
+      <c r="B179" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>188</v>
+      </c>
+      <c r="B180" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>189</v>
+      </c>
+      <c r="B181" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>190</v>
+      </c>
+      <c r="B182" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>191</v>
+      </c>
+      <c r="B183" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>192</v>
+      </c>
+      <c r="B184" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>193</v>
+      </c>
+      <c r="B185" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>194</v>
+      </c>
+      <c r="B186" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>195</v>
+      </c>
+      <c r="B187" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>196</v>
+      </c>
+      <c r="B188" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>197</v>
+      </c>
+      <c r="B189" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>198</v>
+      </c>
+      <c r="B190" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>199</v>
+      </c>
+      <c r="B191" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>200</v>
+      </c>
+      <c r="B192" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>201</v>
+      </c>
+      <c r="B193" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>202</v>
+      </c>
+      <c r="B194" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>203</v>
+      </c>
+      <c r="B195" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>204</v>
+      </c>
+      <c r="B196" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>205</v>
+      </c>
+      <c r="B197" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>206</v>
+      </c>
+      <c r="B198" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>207</v>
+      </c>
+      <c r="B199" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>208</v>
+      </c>
+      <c r="B200" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>209</v>
+      </c>
+      <c r="B201" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>210</v>
+      </c>
+      <c r="B202" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>211</v>
+      </c>
+      <c r="B203" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>212</v>
+      </c>
+      <c r="B204" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>213</v>
+      </c>
+      <c r="B205" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>214</v>
+      </c>
+      <c r="B206" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>215</v>
+      </c>
+      <c r="B207" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4981,7 +5601,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4994,7 +5614,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5002,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5010,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5042,7 +5662,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5050,7 +5670,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5066,7 +5686,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5090,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5098,7 +5718,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5114,7 +5734,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5130,7 +5750,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5146,7 +5766,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5154,7 +5774,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5170,7 +5790,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5178,7 +5798,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5202,7 +5822,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5210,7 +5830,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5218,7 +5838,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5242,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5250,7 +5870,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5258,7 +5878,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5266,7 +5886,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5274,7 +5894,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5298,7 +5918,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5306,7 +5926,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>395</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5314,7 +5934,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5330,7 +5950,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5346,7 +5966,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5362,7 +5982,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5370,7 +5990,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5378,7 +5998,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5402,7 +6022,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5426,7 +6046,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5450,7 +6070,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5458,7 +6078,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5466,7 +6086,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5474,7 +6094,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5482,7 +6102,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5490,7 +6110,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5498,7 +6118,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5506,7 +6126,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5522,7 +6142,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5538,7 +6158,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5546,7 +6166,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5554,7 +6174,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5562,7 +6182,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5578,7 +6198,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5610,7 +6230,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5626,7 +6246,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5634,7 +6254,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>420</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5642,7 +6262,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5650,7 +6270,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5658,7 +6278,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5666,7 +6286,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5674,7 +6294,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5682,7 +6302,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5690,7 +6310,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5698,7 +6318,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5706,7 +6326,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5714,7 +6334,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5722,7 +6342,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5730,7 +6350,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5738,7 +6358,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5746,7 +6366,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5754,7 +6374,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5762,7 +6382,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5770,7 +6390,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5778,7 +6398,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5786,7 +6406,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5794,7 +6414,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5802,7 +6422,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5810,7 +6430,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5818,7 +6438,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5826,7 +6446,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5834,7 +6454,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5842,7 +6462,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5850,7 +6470,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5858,7 +6478,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5866,7 +6486,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5874,7 +6494,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5882,7 +6502,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5890,7 +6510,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5898,7 +6518,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5906,7 +6526,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>454</v>
+        <v>513</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5914,7 +6534,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5922,7 +6542,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5938,7 +6558,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5946,7 +6566,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5954,7 +6574,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5962,7 +6582,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>460</v>
+        <v>519</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5970,7 +6590,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5978,7 +6598,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5986,7 +6606,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5994,7 +6614,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6002,7 +6622,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6010,7 +6630,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6018,7 +6638,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6026,7 +6646,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6034,7 +6654,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6050,7 +6670,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6058,7 +6678,103 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>471</v>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -6082,7 +6798,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6095,7 +6811,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6103,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6111,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6119,7 +6835,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6127,7 +6843,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6135,7 +6851,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6143,7 +6859,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>478</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6151,7 +6867,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6159,7 +6875,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6167,7 +6883,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6175,7 +6891,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6183,7 +6899,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6191,7 +6907,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6199,7 +6915,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6207,7 +6923,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6215,7 +6931,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6223,7 +6939,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6231,7 +6947,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6239,7 +6955,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6247,7 +6963,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6255,7 +6971,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>492</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6263,7 +6979,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>493</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6271,7 +6987,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6279,7 +6995,7 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>495</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -6287,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6295,7 +7011,7 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -6303,7 +7019,7 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6311,7 +7027,7 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6319,7 +7035,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6327,7 +7043,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6335,7 +7051,7 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6343,7 +7059,7 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6351,7 +7067,7 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6359,7 +7075,7 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6367,7 +7083,7 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6375,7 +7091,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6383,7 +7099,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6391,7 +7107,7 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6399,7 +7115,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6407,7 +7123,7 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6415,7 +7131,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6423,7 +7139,7 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6431,7 +7147,7 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6439,7 +7155,7 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>586</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6447,7 +7163,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6455,7 +7171,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6463,7 +7179,7 @@
         <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>296</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6471,7 +7187,7 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6479,7 +7195,7 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6487,7 +7203,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6495,7 +7211,23 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>520</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -6529,10 +7261,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="B1" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6540,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6548,7 +7280,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6556,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6564,7 +7296,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="774">
   <si>
     <t>Item Description</t>
   </si>
@@ -154,6 +154,12 @@
     <t>Others</t>
   </si>
   <si>
+    <t>Testing Equipment Parts and Accessories</t>
+  </si>
+  <si>
+    <t>CON-TPA</t>
+  </si>
+  <si>
     <t>Automotive Parts and Accessories</t>
   </si>
   <si>
@@ -307,7 +313,7 @@
     <t>FFE-UNI</t>
   </si>
   <si>
-    <t>Tools</t>
+    <t>Tools and Equipment</t>
   </si>
   <si>
     <t>Hand Tools</t>
@@ -334,6 +340,12 @@
     <t>TOO-STO</t>
   </si>
   <si>
+    <t>Special Tool</t>
+  </si>
+  <si>
+    <t>TOO-SPE</t>
+  </si>
+  <si>
     <t>Main Bearing</t>
   </si>
   <si>
@@ -493,6 +505,18 @@
     <t>Turbo Charger</t>
   </si>
   <si>
+    <t>Turbo Charger Parts and Accessories for Pielstick</t>
+  </si>
+  <si>
+    <t>TUR-PIE</t>
+  </si>
+  <si>
+    <t>Turbo Charger Parts and Accessories for Sulzer</t>
+  </si>
+  <si>
+    <t>TUR-SUL</t>
+  </si>
+  <si>
     <t>Reconditioning</t>
   </si>
   <si>
@@ -700,19 +724,34 @@
     <t>VISUAL FLOW CONTROL FOR CYLINDER LUBRICATION</t>
   </si>
   <si>
+    <t>Shipping Cost</t>
+  </si>
+  <si>
+    <t>Shipping Cost - Local</t>
+  </si>
+  <si>
+    <t>SHIP-LOC</t>
+  </si>
+  <si>
+    <t>Shipping Cost - International</t>
+  </si>
+  <si>
+    <t>SHIP-INT</t>
+  </si>
+  <si>
     <t>Rack Name</t>
   </si>
   <si>
-    <t>Rack - A1</t>
-  </si>
-  <si>
-    <t>Rack - A2</t>
-  </si>
-  <si>
-    <t>Rack - A3</t>
-  </si>
-  <si>
-    <t>Rack - A4</t>
+    <t>Bolt Rack 3-A</t>
+  </si>
+  <si>
+    <t>Bolt Rack 3-B</t>
+  </si>
+  <si>
+    <t>Bolt Rack 4-A</t>
+  </si>
+  <si>
+    <t>Bolt Rack 4-B</t>
   </si>
   <si>
     <t>Rack - B1</t>
@@ -1048,10 +1087,10 @@
     <t>Rack 6-D</t>
   </si>
   <si>
-    <t>Rack 7-A</t>
-  </si>
-  <si>
-    <t>Rack 7-B</t>
+    <t>Rack 7-A, Side Wall</t>
+  </si>
+  <si>
+    <t>Rack 7-B, Side Wall</t>
   </si>
   <si>
     <t>Rack 7-C</t>
@@ -1060,10 +1099,10 @@
     <t>Rack 7-D</t>
   </si>
   <si>
-    <t>Rack 8-A</t>
-  </si>
-  <si>
-    <t>Rack 8-B</t>
+    <t>Rack 8-A, Side Wall</t>
+  </si>
+  <si>
+    <t>Rack 8-B, Side Wall</t>
   </si>
   <si>
     <t>Rack 8-C</t>
@@ -1225,97 +1264,574 @@
     <t>Aux Rack 4-B</t>
   </si>
   <si>
-    <t>Aux Rack 4-C Drawer 1.1</t>
+    <t>Aux Rack 1-C Drawer 3.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-D Box1</t>
+  </si>
+  <si>
+    <t>SR Cabinet 2-A</t>
+  </si>
+  <si>
+    <t>SR Cabinet 2-B</t>
+  </si>
+  <si>
+    <t>SR Cabinet 2-C</t>
+  </si>
+  <si>
+    <t>SR Cabinet 1-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C  Drawer 2.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 2.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 1.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.1</t>
+  </si>
+  <si>
+    <t>Rack 3-E</t>
+  </si>
+  <si>
+    <t>Aux Rack 2-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 2-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 2-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 2-D</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 3.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 4.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-C Drawer 5.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 2A</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 2B</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 2C</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 2D</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 2E</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 1A</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 1B</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 1C</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 1D</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 1E</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 3A</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 3B</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 3C</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 3D</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 3E</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-C, Durabox</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 4A</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 4B</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 4C</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 4E</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-B, Drawer 4D</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-A</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 1.1</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 1.2</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 1.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 1.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 1.5</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 1.6</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.1</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.2</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.5</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.6</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B Drawer 2.7</t>
+  </si>
+  <si>
+    <t>EIC Rack 9-A</t>
+  </si>
+  <si>
+    <t>EIC Rack 9-B</t>
+  </si>
+  <si>
+    <t>EIC Rack 9-C</t>
+  </si>
+  <si>
+    <t>EIC Rack 9-C Box</t>
+  </si>
+  <si>
+    <t>SR Cabinet 2-D</t>
+  </si>
+  <si>
+    <t>SR Cabinet 2-E</t>
+  </si>
+  <si>
+    <t>Side Wall</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.1</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.2</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.5</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.6</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.7</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.8</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 3.9</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.1</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.2</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.5</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.6</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 4.7</t>
+  </si>
+  <si>
+    <t>EIC rack 10-A Drawer 5.1</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.2</t>
+  </si>
+  <si>
+    <t>SR Table</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-C Drawer 3.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 1-D</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.4</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-B Durabox</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.8</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.7</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.9</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.1</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.3</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.6</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.10</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 2.2</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.5</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-C Durabox</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 5-A Drawer 1.4</t>
+  </si>
+  <si>
+    <t>Bolt Rack 1-A</t>
+  </si>
+  <si>
+    <t>Bolt Rack 1-B</t>
+  </si>
+  <si>
+    <t>Bolt Rack 2-A</t>
+  </si>
+  <si>
+    <t>Bolt Rack 2-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 7-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 7-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 7-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 7-D</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-D</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.5</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.6</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.7</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 5.8</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-B</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 4-D Box2</t>
+  </si>
+  <si>
+    <t>Bolt Rack 3-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 3-A</t>
+  </si>
+  <si>
+    <t>Aux Rack 3-B</t>
+  </si>
+  <si>
+    <t>Aux Rack 3-C</t>
+  </si>
+  <si>
+    <t>Aux Rack 3-D</t>
+  </si>
+  <si>
+    <t>Aux Rack 3-E</t>
   </si>
   <si>
     <t>Aux Rack 4-D</t>
   </si>
   <si>
-    <t>SR Rack 1-A</t>
-  </si>
-  <si>
-    <t>SR Rack 1-B</t>
-  </si>
-  <si>
-    <t>SR Rack 1-C</t>
-  </si>
-  <si>
-    <t>SR Cabinet 1-B</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.2</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.3</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.4</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.5</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.6</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.7</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 1.8</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 3.1</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.1</t>
-  </si>
-  <si>
-    <t>aux Rack 4-C Drawer 2.2</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.3</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.4</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C  Drawer 2.5</t>
-  </si>
-  <si>
-    <t>aux Rack 4-C Drawer 3.2</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 3.3</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.6</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.7</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.8</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 3.5</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 3.4</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 3.7</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.9</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 2.10</t>
-  </si>
-  <si>
-    <t>Aux Rack 4-C Drawer 3.6</t>
+    <t>Bolt Rack 2-A Container 1, Container 2</t>
+  </si>
+  <si>
+    <t>Bolt Rack 2-A Container 3, Container 4</t>
+  </si>
+  <si>
+    <t>EIC Rack 8-B</t>
+  </si>
+  <si>
+    <t>Testing Storage Rm Wall</t>
+  </si>
+  <si>
+    <t>Oxy &amp; Ace Storage Area</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.2</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.4</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.5</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.6</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 2.7</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 1.0</t>
   </si>
   <si>
     <t>Group Name</t>
@@ -1459,7 +1975,7 @@
     <t>Valve Drive</t>
   </si>
   <si>
-    <t>Valve Gear?Case</t>
+    <t>Valve Gear Case</t>
   </si>
   <si>
     <t>Visual Flow Control For Cylind</t>
@@ -2265,10 +2781,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B170" sqref="B170"/>
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2447,28 +2963,28 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -2478,28 +2994,28 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -2510,7 +3026,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>54</v>
@@ -2520,48 +3036,48 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4">
+      <c r="B24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -2572,7 +3088,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
@@ -2583,7 +3099,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>66</v>
@@ -2593,28 +3109,28 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>71</v>
@@ -2625,7 +3141,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
         <v>73</v>
@@ -2636,7 +3152,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>75</v>
@@ -2647,7 +3163,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -2658,7 +3174,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>79</v>
@@ -2669,7 +3185,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -2680,7 +3196,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>83</v>
@@ -2691,7 +3207,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
@@ -2702,7 +3218,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>87</v>
@@ -2713,7 +3229,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
         <v>89</v>
@@ -2724,7 +3240,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
         <v>91</v>
@@ -2735,7 +3251,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>93</v>
@@ -2745,28 +3261,28 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3">
         <v>7</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="4">
-        <v>34</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
@@ -2777,7 +3293,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
@@ -2788,7 +3304,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
@@ -2798,1102 +3314,1177 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="4">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3">
-        <v>9</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="2"/>
+      <c r="A50" s="4">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="3">
-        <v>63</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="2"/>
+      <c r="A104" s="4">
+        <v>43</v>
+      </c>
+      <c r="B104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="3">
-        <v>64</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C105" s="2"/>
+      <c r="A105" s="4">
+        <v>44</v>
+      </c>
+      <c r="B105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="3">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="3">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="3">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="3">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="3">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3">
+        <v>137</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="3">
+        <v>138</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="3">
+        <v>139</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="3">
+        <v>140</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="3">
         <v>142</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C170" s="2"/>
+      <c r="B174" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="3">
+        <v>143</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="4">
+        <v>45</v>
+      </c>
+      <c r="B176" t="s">
+        <v>235</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="4">
+        <v>46</v>
+      </c>
+      <c r="B177" t="s">
+        <v>237</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -3916,7 +4507,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B207"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3929,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3937,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3945,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3953,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3961,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3969,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3977,7 +4568,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3985,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3993,7 +4584,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4001,7 +4592,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4009,7 +4600,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4017,7 +4608,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4025,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4033,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4041,7 +4632,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4049,7 +4640,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4057,7 +4648,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4065,7 +4656,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4073,7 +4664,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4081,7 +4672,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4089,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4097,7 +4688,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4105,7 +4696,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4113,7 +4704,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4121,7 +4712,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4129,7 +4720,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4137,7 +4728,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4145,7 +4736,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4153,7 +4744,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4161,7 +4752,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4169,7 +4760,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4177,7 +4768,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4185,7 +4776,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4193,7 +4784,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4201,7 +4792,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4209,7 +4800,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4217,7 +4808,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4225,7 +4816,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4233,7 +4824,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4241,7 +4832,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4249,7 +4840,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4257,7 +4848,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4265,7 +4856,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4273,7 +4864,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4281,7 +4872,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4289,7 +4880,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4297,7 +4888,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4305,7 +4896,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4313,7 +4904,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4321,7 +4912,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4329,7 +4920,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4337,7 +4928,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4345,7 +4936,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4353,7 +4944,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4361,7 +4952,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4369,7 +4960,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4377,7 +4968,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4385,7 +4976,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4393,7 +4984,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4401,7 +4992,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4409,7 +5000,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4417,7 +5008,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4425,7 +5016,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4433,7 +5024,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4441,7 +5032,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4449,7 +5040,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4457,7 +5048,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4465,7 +5056,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4473,7 +5064,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4481,7 +5072,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4489,7 +5080,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4497,7 +5088,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4505,7 +5096,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4513,7 +5104,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4521,7 +5112,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4529,7 +5120,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4537,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4545,7 +5136,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4553,7 +5144,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4561,7 +5152,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4569,7 +5160,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4577,7 +5168,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4585,7 +5176,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4593,7 +5184,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4601,7 +5192,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4609,7 +5200,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4617,7 +5208,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4625,7 +5216,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4633,7 +5224,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4641,7 +5232,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4649,7 +5240,7 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4657,7 +5248,7 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4665,7 +5256,7 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4673,7 +5264,7 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4681,7 +5272,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4689,7 +5280,7 @@
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4697,7 +5288,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4705,7 +5296,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4713,7 +5304,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4721,7 +5312,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4729,7 +5320,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4737,7 +5328,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4745,7 +5336,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4753,7 +5344,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4761,7 +5352,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4769,7 +5360,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4777,7 +5368,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4785,7 +5376,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4793,7 +5384,7 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4801,7 +5392,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4809,7 +5400,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4817,7 +5408,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4825,7 +5416,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4833,7 +5424,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4841,7 +5432,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4849,7 +5440,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4857,7 +5448,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4865,7 +5456,7 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4873,7 +5464,7 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4881,7 +5472,7 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4889,7 +5480,7 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4897,7 +5488,7 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4905,7 +5496,7 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4913,7 +5504,7 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4921,7 +5512,7 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4929,7 +5520,7 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4937,7 +5528,7 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4945,7 +5536,7 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4953,7 +5544,7 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4961,7 +5552,7 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4969,7 +5560,7 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -4977,7 +5568,7 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4985,7 +5576,7 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -4993,7 +5584,7 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5001,7 +5592,7 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5009,7 +5600,7 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5017,7 +5608,7 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5025,7 +5616,7 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5033,7 +5624,7 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5041,7 +5632,7 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5049,7 +5640,7 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5057,7 +5648,7 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5065,7 +5656,7 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5073,7 +5664,7 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5081,7 +5672,7 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5089,7 +5680,7 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5097,7 +5688,7 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5105,7 +5696,7 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5113,7 +5704,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5121,7 +5712,7 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5129,7 +5720,7 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5137,7 +5728,7 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5145,7 +5736,7 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5153,7 +5744,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5161,7 +5752,7 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5169,7 +5760,7 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5177,7 +5768,7 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5185,7 +5776,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5193,7 +5784,7 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5201,7 +5792,7 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5209,7 +5800,7 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5217,7 +5808,7 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5225,7 +5816,7 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5233,7 +5824,7 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5241,7 +5832,7 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5249,7 +5840,7 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5257,7 +5848,7 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5265,7 +5856,7 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5273,7 +5864,7 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5281,7 +5872,7 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5289,7 +5880,7 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5297,7 +5888,7 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5305,7 +5896,7 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5313,7 +5904,7 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5321,7 +5912,7 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5329,7 +5920,7 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5337,7 +5928,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5345,7 +5936,7 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5353,7 +5944,7 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5361,7 +5952,7 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5369,7 +5960,7 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5377,7 +5968,7 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5385,7 +5976,7 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5393,7 +5984,7 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5401,7 +5992,7 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5409,7 +6000,7 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5417,7 +6008,7 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5425,7 +6016,7 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5433,7 +6024,7 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5441,7 +6032,7 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5449,7 +6040,7 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5457,7 +6048,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5465,7 +6056,7 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5473,7 +6064,7 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5481,7 +6072,7 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5489,7 +6080,7 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5497,7 +6088,7 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5505,7 +6096,7 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5513,7 +6104,7 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5521,7 +6112,7 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5529,7 +6120,7 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5537,7 +6128,7 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5545,7 +6136,7 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5553,7 +6144,7 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5561,7 +6152,7 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5569,7 +6160,7 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5577,7 +6168,1295 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>431</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>216</v>
+      </c>
+      <c r="B208" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>217</v>
+      </c>
+      <c r="B209" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>218</v>
+      </c>
+      <c r="B210" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>219</v>
+      </c>
+      <c r="B211" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>220</v>
+      </c>
+      <c r="B212" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>221</v>
+      </c>
+      <c r="B213" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>222</v>
+      </c>
+      <c r="B214" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>223</v>
+      </c>
+      <c r="B215" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>224</v>
+      </c>
+      <c r="B216" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>225</v>
+      </c>
+      <c r="B217" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>226</v>
+      </c>
+      <c r="B218" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>227</v>
+      </c>
+      <c r="B219" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>228</v>
+      </c>
+      <c r="B220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>229</v>
+      </c>
+      <c r="B221" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>230</v>
+      </c>
+      <c r="B222" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>231</v>
+      </c>
+      <c r="B223" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>232</v>
+      </c>
+      <c r="B224" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>233</v>
+      </c>
+      <c r="B225" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>234</v>
+      </c>
+      <c r="B226" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>235</v>
+      </c>
+      <c r="B227" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>236</v>
+      </c>
+      <c r="B228" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>237</v>
+      </c>
+      <c r="B229" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>238</v>
+      </c>
+      <c r="B230" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>239</v>
+      </c>
+      <c r="B231" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>240</v>
+      </c>
+      <c r="B232" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>241</v>
+      </c>
+      <c r="B233" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>242</v>
+      </c>
+      <c r="B234" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>243</v>
+      </c>
+      <c r="B235" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>244</v>
+      </c>
+      <c r="B236" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>245</v>
+      </c>
+      <c r="B237" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>246</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>247</v>
+      </c>
+      <c r="B239" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>248</v>
+      </c>
+      <c r="B240" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>249</v>
+      </c>
+      <c r="B241" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>250</v>
+      </c>
+      <c r="B242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>251</v>
+      </c>
+      <c r="B243" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>252</v>
+      </c>
+      <c r="B244" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>253</v>
+      </c>
+      <c r="B245" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>254</v>
+      </c>
+      <c r="B246" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>255</v>
+      </c>
+      <c r="B247" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>256</v>
+      </c>
+      <c r="B248" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>257</v>
+      </c>
+      <c r="B249" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>258</v>
+      </c>
+      <c r="B250" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>259</v>
+      </c>
+      <c r="B251" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>260</v>
+      </c>
+      <c r="B252" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>261</v>
+      </c>
+      <c r="B253" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>262</v>
+      </c>
+      <c r="B254" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>263</v>
+      </c>
+      <c r="B255" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>264</v>
+      </c>
+      <c r="B256" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>265</v>
+      </c>
+      <c r="B257" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>266</v>
+      </c>
+      <c r="B258" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>267</v>
+      </c>
+      <c r="B259" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>268</v>
+      </c>
+      <c r="B260" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>269</v>
+      </c>
+      <c r="B261" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>270</v>
+      </c>
+      <c r="B262" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>271</v>
+      </c>
+      <c r="B263" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>272</v>
+      </c>
+      <c r="B264" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>273</v>
+      </c>
+      <c r="B265" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>274</v>
+      </c>
+      <c r="B266" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>275</v>
+      </c>
+      <c r="B267" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>276</v>
+      </c>
+      <c r="B268" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>277</v>
+      </c>
+      <c r="B269" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>278</v>
+      </c>
+      <c r="B270" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>279</v>
+      </c>
+      <c r="B271" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>280</v>
+      </c>
+      <c r="B272" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>281</v>
+      </c>
+      <c r="B273" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>282</v>
+      </c>
+      <c r="B274" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>283</v>
+      </c>
+      <c r="B275" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>284</v>
+      </c>
+      <c r="B276" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>285</v>
+      </c>
+      <c r="B277" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>286</v>
+      </c>
+      <c r="B278" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>287</v>
+      </c>
+      <c r="B279" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>288</v>
+      </c>
+      <c r="B280" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>289</v>
+      </c>
+      <c r="B281" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>290</v>
+      </c>
+      <c r="B282" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>291</v>
+      </c>
+      <c r="B283" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>292</v>
+      </c>
+      <c r="B284" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>293</v>
+      </c>
+      <c r="B285" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>294</v>
+      </c>
+      <c r="B286" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>295</v>
+      </c>
+      <c r="B287" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>296</v>
+      </c>
+      <c r="B288" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>297</v>
+      </c>
+      <c r="B289" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>298</v>
+      </c>
+      <c r="B290" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>299</v>
+      </c>
+      <c r="B291" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>300</v>
+      </c>
+      <c r="B292" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>301</v>
+      </c>
+      <c r="B293" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>302</v>
+      </c>
+      <c r="B294" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>303</v>
+      </c>
+      <c r="B295" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>304</v>
+      </c>
+      <c r="B296" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>305</v>
+      </c>
+      <c r="B297" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>306</v>
+      </c>
+      <c r="B298" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>307</v>
+      </c>
+      <c r="B299" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>308</v>
+      </c>
+      <c r="B300" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>309</v>
+      </c>
+      <c r="B301" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>310</v>
+      </c>
+      <c r="B302" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>311</v>
+      </c>
+      <c r="B303" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>312</v>
+      </c>
+      <c r="B304" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>313</v>
+      </c>
+      <c r="B305" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>314</v>
+      </c>
+      <c r="B306" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>315</v>
+      </c>
+      <c r="B307" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>316</v>
+      </c>
+      <c r="B308" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>317</v>
+      </c>
+      <c r="B309" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>318</v>
+      </c>
+      <c r="B310" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>319</v>
+      </c>
+      <c r="B311" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>320</v>
+      </c>
+      <c r="B312" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>321</v>
+      </c>
+      <c r="B313" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>322</v>
+      </c>
+      <c r="B314" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>323</v>
+      </c>
+      <c r="B315" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>324</v>
+      </c>
+      <c r="B316" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>325</v>
+      </c>
+      <c r="B317" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>326</v>
+      </c>
+      <c r="B318" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>327</v>
+      </c>
+      <c r="B319" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>328</v>
+      </c>
+      <c r="B320" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>329</v>
+      </c>
+      <c r="B321" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>330</v>
+      </c>
+      <c r="B322" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>331</v>
+      </c>
+      <c r="B323" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>332</v>
+      </c>
+      <c r="B324" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>333</v>
+      </c>
+      <c r="B325" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>334</v>
+      </c>
+      <c r="B326" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>335</v>
+      </c>
+      <c r="B327" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>336</v>
+      </c>
+      <c r="B328" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>337</v>
+      </c>
+      <c r="B329" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>338</v>
+      </c>
+      <c r="B330" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>339</v>
+      </c>
+      <c r="B331" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>340</v>
+      </c>
+      <c r="B332" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>341</v>
+      </c>
+      <c r="B333" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>342</v>
+      </c>
+      <c r="B334" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>343</v>
+      </c>
+      <c r="B335" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>344</v>
+      </c>
+      <c r="B336" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>345</v>
+      </c>
+      <c r="B337" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>346</v>
+      </c>
+      <c r="B338" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>347</v>
+      </c>
+      <c r="B339" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>348</v>
+      </c>
+      <c r="B340" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>349</v>
+      </c>
+      <c r="B341" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>350</v>
+      </c>
+      <c r="B342" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>351</v>
+      </c>
+      <c r="B343" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>352</v>
+      </c>
+      <c r="B344" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>353</v>
+      </c>
+      <c r="B345" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>354</v>
+      </c>
+      <c r="B346" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>355</v>
+      </c>
+      <c r="B347" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>356</v>
+      </c>
+      <c r="B348" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>357</v>
+      </c>
+      <c r="B349" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>358</v>
+      </c>
+      <c r="B350" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>359</v>
+      </c>
+      <c r="B351" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>360</v>
+      </c>
+      <c r="B352" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>361</v>
+      </c>
+      <c r="B353" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>362</v>
+      </c>
+      <c r="B354" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>363</v>
+      </c>
+      <c r="B355" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>364</v>
+      </c>
+      <c r="B356" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>365</v>
+      </c>
+      <c r="B357" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>366</v>
+      </c>
+      <c r="B358" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>367</v>
+      </c>
+      <c r="B359" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>368</v>
+      </c>
+      <c r="B360" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>369</v>
+      </c>
+      <c r="B361" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>370</v>
+      </c>
+      <c r="B362" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>371</v>
+      </c>
+      <c r="B363" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>372</v>
+      </c>
+      <c r="B364" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>373</v>
+      </c>
+      <c r="B365" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>374</v>
+      </c>
+      <c r="B366" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>375</v>
+      </c>
+      <c r="B367" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>376</v>
+      </c>
+      <c r="B368" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5614,7 +7493,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>432</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5622,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5630,7 +7509,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5638,7 +7517,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5646,7 +7525,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5654,7 +7533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5662,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5670,7 +7549,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>436</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5678,7 +7557,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5686,7 +7565,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>437</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5694,7 +7573,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5702,7 +7581,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5710,7 +7589,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5718,7 +7597,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5726,7 +7605,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5734,7 +7613,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>440</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5742,7 +7621,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5750,7 +7629,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5758,7 +7637,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5766,7 +7645,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5774,7 +7653,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>443</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5782,7 +7661,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5790,7 +7669,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5798,7 +7677,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5806,7 +7685,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5814,7 +7693,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5822,7 +7701,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>446</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5830,7 +7709,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>447</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5838,7 +7717,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>448</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5846,7 +7725,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5854,7 +7733,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5862,7 +7741,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5870,7 +7749,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5878,7 +7757,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5886,7 +7765,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>452</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5894,7 +7773,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>453</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5902,7 +7781,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5910,7 +7789,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5918,7 +7797,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>454</v>
+        <v>626</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5926,7 +7805,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5934,7 +7813,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>456</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -5942,7 +7821,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5950,7 +7829,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5958,7 +7837,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5966,7 +7845,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>458</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5974,7 +7853,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5982,7 +7861,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>459</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5990,7 +7869,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>460</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -5998,7 +7877,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>461</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6006,7 +7885,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6014,7 +7893,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6022,7 +7901,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -6030,7 +7909,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -6038,7 +7917,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -6046,7 +7925,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>463</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -6054,7 +7933,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -6062,7 +7941,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6070,7 +7949,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>464</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -6078,7 +7957,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>465</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -6086,7 +7965,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>466</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6094,7 +7973,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>467</v>
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6102,7 +7981,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>468</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -6110,7 +7989,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>469</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -6118,7 +7997,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>470</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -6126,7 +8005,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>471</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -6134,7 +8013,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6142,7 +8021,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>472</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6150,7 +8029,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -6158,7 +8037,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>473</v>
+        <v>645</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -6166,7 +8045,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>474</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6174,7 +8053,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>475</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6182,7 +8061,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>648</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -6190,7 +8069,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -6198,7 +8077,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -6206,7 +8085,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -6214,7 +8093,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -6222,7 +8101,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -6230,7 +8109,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>478</v>
+        <v>650</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -6238,7 +8117,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -6246,7 +8125,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>479</v>
+        <v>651</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6254,7 +8133,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6262,7 +8141,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>480</v>
+        <v>652</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -6270,7 +8149,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>481</v>
+        <v>653</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6278,7 +8157,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>482</v>
+        <v>654</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6286,7 +8165,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>483</v>
+        <v>655</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -6294,7 +8173,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>484</v>
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -6302,7 +8181,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>485</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -6310,7 +8189,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>486</v>
+        <v>658</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -6318,7 +8197,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>487</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -6326,7 +8205,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>488</v>
+        <v>660</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -6334,7 +8213,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>489</v>
+        <v>661</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6342,7 +8221,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>490</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -6350,7 +8229,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>491</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -6358,7 +8237,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>492</v>
+        <v>664</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6366,7 +8245,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>493</v>
+        <v>665</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6374,7 +8253,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>494</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -6382,7 +8261,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>495</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -6390,7 +8269,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>496</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6398,7 +8277,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>497</v>
+        <v>669</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6406,7 +8285,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>498</v>
+        <v>670</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -6414,7 +8293,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>499</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -6422,7 +8301,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>500</v>
+        <v>672</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -6430,7 +8309,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>501</v>
+        <v>673</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -6438,7 +8317,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>502</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6446,7 +8325,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>503</v>
+        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -6454,7 +8333,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>504</v>
+        <v>676</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -6462,7 +8341,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>505</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6470,7 +8349,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>506</v>
+        <v>678</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -6478,7 +8357,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>507</v>
+        <v>679</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -6486,7 +8365,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>508</v>
+        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -6494,7 +8373,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>509</v>
+        <v>681</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -6502,7 +8381,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>510</v>
+        <v>682</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6510,7 +8389,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>511</v>
+        <v>683</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -6518,7 +8397,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>512</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -6526,7 +8405,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>513</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -6534,7 +8413,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>514</v>
+        <v>686</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -6542,7 +8421,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>515</v>
+        <v>687</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -6550,7 +8429,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -6558,7 +8437,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>516</v>
+        <v>688</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -6566,7 +8445,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>517</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -6574,7 +8453,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>518</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -6582,7 +8461,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>519</v>
+        <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -6590,7 +8469,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>520</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -6598,7 +8477,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>521</v>
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6606,7 +8485,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>522</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6614,7 +8493,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>523</v>
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -6622,7 +8501,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>524</v>
+        <v>696</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6630,7 +8509,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>525</v>
+        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6638,7 +8517,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>526</v>
+        <v>698</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6646,7 +8525,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>527</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6654,7 +8533,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>528</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6662,7 +8541,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6670,7 +8549,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>529</v>
+        <v>701</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6678,7 +8557,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>530</v>
+        <v>702</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -6686,7 +8565,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>531</v>
+        <v>703</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -6694,7 +8573,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>532</v>
+        <v>704</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6702,7 +8581,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>533</v>
+        <v>705</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6710,7 +8589,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>534</v>
+        <v>706</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -6718,7 +8597,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>535</v>
+        <v>707</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6726,7 +8605,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>536</v>
+        <v>708</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -6734,7 +8613,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>537</v>
+        <v>709</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6742,7 +8621,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>538</v>
+        <v>710</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -6750,7 +8629,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>539</v>
+        <v>711</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -6758,7 +8637,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>540</v>
+        <v>712</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -6766,7 +8645,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>541</v>
+        <v>713</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -6774,7 +8653,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>542</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -6798,7 +8677,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6811,7 +8690,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6819,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6827,7 +8706,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6835,7 +8714,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6843,7 +8722,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6851,7 +8730,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6859,7 +8738,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>549</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6867,7 +8746,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>550</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6875,7 +8754,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>551</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6883,7 +8762,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>552</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6891,7 +8770,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>553</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6899,7 +8778,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>554</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6907,7 +8786,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>555</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6915,7 +8794,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>556</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -6923,7 +8802,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>557</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6931,7 +8810,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>558</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6939,7 +8818,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>559</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6947,7 +8826,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6955,7 +8834,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6963,7 +8842,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>562</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6971,7 +8850,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>735</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6979,7 +8858,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>564</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6987,7 +8866,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>565</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6995,7 +8874,7 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>566</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7003,7 +8882,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>567</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7011,7 +8890,7 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7019,7 +8898,7 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>569</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7027,7 +8906,7 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7035,7 +8914,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>571</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7043,7 +8922,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>572</v>
+        <v>744</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7051,7 +8930,7 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>573</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7059,7 +8938,7 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>574</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7067,7 +8946,7 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>575</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7075,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>576</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7083,7 +8962,7 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>577</v>
+        <v>749</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7091,7 +8970,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>578</v>
+        <v>750</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7099,7 +8978,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>579</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7107,7 +8986,7 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>580</v>
+        <v>752</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7115,7 +8994,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>581</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7123,7 +9002,7 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>582</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7131,7 +9010,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>583</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7139,7 +9018,7 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>584</v>
+        <v>756</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7147,7 +9026,7 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>585</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7155,7 +9034,7 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>586</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7163,7 +9042,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>587</v>
+        <v>759</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7171,7 +9050,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>588</v>
+        <v>760</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7179,7 +9058,7 @@
         <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>589</v>
+        <v>761</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7187,7 +9066,7 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>590</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7195,7 +9074,7 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>591</v>
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7203,7 +9082,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>592</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7211,7 +9090,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>593</v>
+        <v>765</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7219,7 +9098,7 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>594</v>
+        <v>766</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7227,7 +9106,15 @@
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>595</v>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -7261,10 +9148,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>596</v>
+        <v>768</v>
       </c>
       <c r="B1" t="s">
-        <v>597</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7272,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7280,7 +9167,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7288,7 +9175,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7296,7 +9183,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>

--- a/inventory_format.xlsx
+++ b/inventory_format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="804">
   <si>
     <t>Item Description</t>
   </si>
@@ -346,6 +346,27 @@
     <t>TOO-SPE</t>
   </si>
   <si>
+    <t>Lifting Tools</t>
+  </si>
+  <si>
+    <t>TOO-LIF</t>
+  </si>
+  <si>
+    <t>Labelling Tools</t>
+  </si>
+  <si>
+    <t>TOO-LABE</t>
+  </si>
+  <si>
+    <t>Machinery</t>
+  </si>
+  <si>
+    <t>TOO-MAC</t>
+  </si>
+  <si>
+    <t>TOO-TES</t>
+  </si>
+  <si>
     <t>Main Bearing</t>
   </si>
   <si>
@@ -1834,6 +1855,63 @@
     <t>EIC Rack 10-A Drawer 1.0</t>
   </si>
   <si>
+    <t>EIC Rack 10-A Drawer 1.1</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 1.2</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 1.3</t>
+  </si>
+  <si>
+    <t>EIC Rack 10-A Drawer 1.4</t>
+  </si>
+  <si>
+    <t>Bay 2 CV14</t>
+  </si>
+  <si>
+    <t>Drawer 6.3 Side Wall</t>
+  </si>
+  <si>
+    <t>Drawer 6.4 Side Wall</t>
+  </si>
+  <si>
+    <t>Rack 6-A</t>
+  </si>
+  <si>
+    <t>Rack 7-A</t>
+  </si>
+  <si>
+    <t>Rack 7-B</t>
+  </si>
+  <si>
+    <t>PRO-Office Supply Rack</t>
+  </si>
+  <si>
+    <t>Floor, beside SR Table</t>
+  </si>
+  <si>
+    <t>Drawer 6.2 Side Wall</t>
+  </si>
+  <si>
+    <t>Aux Rack 6-C</t>
+  </si>
+  <si>
+    <t>Side Wall - Governor Box</t>
+  </si>
+  <si>
+    <t>Rack 8-A</t>
+  </si>
+  <si>
+    <t>Bolt Rack 4-C</t>
+  </si>
+  <si>
+    <t>Bolt Rack 3-D</t>
+  </si>
+  <si>
+    <t>Bolt Rack 2-C</t>
+  </si>
+  <si>
     <t>Group Name</t>
   </si>
   <si>
@@ -1975,7 +2053,7 @@
     <t>Valve Drive</t>
   </si>
   <si>
-    <t>Valve Gear Case</t>
+    <t>Valve Gear?Case</t>
   </si>
   <si>
     <t>Visual Flow Control For Cylind</t>
@@ -2324,6 +2402,18 @@
   </si>
   <si>
     <t>Cabinet No. 1-B</t>
+  </si>
+  <si>
+    <t>DG2- Main Engine Frame</t>
+  </si>
+  <si>
+    <t>CV 8</t>
+  </si>
+  <si>
+    <t>DG1</t>
+  </si>
+  <si>
+    <t>Control Room</t>
   </si>
   <si>
     <t>Warehouse ID</t>
@@ -2781,10 +2871,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C177" sqref="C177"/>
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3336,1155 +3426,1208 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3">
-        <v>8</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3">
-        <v>9</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="2"/>
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="3">
-        <v>10</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="2"/>
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="3">
-        <v>11</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="2"/>
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="3">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="3">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="3">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="3">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="3">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="3">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="3">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="3">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="3">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="3">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="4">
-        <v>43</v>
-      </c>
-      <c r="B104" t="s">
-        <v>161</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="A104" s="3">
+        <v>57</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="4">
-        <v>44</v>
-      </c>
-      <c r="B105" t="s">
-        <v>163</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="A105" s="3">
+        <v>58</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="3">
-        <v>63</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="2"/>
+      <c r="A108" s="4">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="3">
-        <v>64</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C109" s="2"/>
+      <c r="A109" s="4">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="3">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="3">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="3">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="3">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="3">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="3">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="3">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="3">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="3">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="3">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="3">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="3">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="3">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="3">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="3">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="3">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="3">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="3">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="3">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="3">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="3">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="3">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="3">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C143" s="2"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="3">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="3">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C145" s="2"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="3">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C146" s="2"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C147" s="2"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="3">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C148" s="2"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="3">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C149" s="2"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="3">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C150" s="2"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="3">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="3">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C152" s="2"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="3">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C154" s="2"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="3">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C155" s="2"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="3">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="3">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C157" s="2"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="3">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="3">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C159" s="2"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="3">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="3">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C161" s="2"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="3">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C162" s="2"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="3">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C163" s="2"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="3">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="3">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="3">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="3">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C167" s="2"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="3">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="3">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C169" s="2"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="3">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="3">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="3">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C172" s="2"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="3">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C173" s="2"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="3">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="3">
+        <v>138</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="3">
+        <v>139</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="3">
+        <v>140</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="3">
+        <v>142</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="3">
         <v>143</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="4">
+      <c r="B179" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="4">
         <v>45</v>
       </c>
-      <c r="B176" t="s">
-        <v>235</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="4">
+      <c r="B180" t="s">
+        <v>242</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="4">
         <v>46</v>
       </c>
-      <c r="B177" t="s">
-        <v>237</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="B181" t="s">
+        <v>244</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="3">
+        <v>144</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C182" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -4507,7 +4650,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B387"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4520,7 +4663,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4528,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4536,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4544,7 +4687,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4552,7 +4695,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4560,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4568,7 +4711,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4576,7 +4719,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4584,7 +4727,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4592,7 +4735,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4600,7 +4743,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4608,7 +4751,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4616,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4624,7 +4767,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4632,7 +4775,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4640,7 +4783,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4648,7 +4791,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4656,7 +4799,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4664,7 +4807,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4672,7 +4815,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4680,7 +4823,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4688,7 +4831,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4696,7 +4839,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4704,7 +4847,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4712,7 +4855,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4720,7 +4863,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4728,7 +4871,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4736,7 +4879,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4744,7 +4887,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4752,7 +4895,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4760,7 +4903,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4768,7 +4911,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4776,7 +4919,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4784,7 +4927,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4792,7 +4935,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4800,7 +4943,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4808,7 +4951,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4816,7 +4959,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4824,7 +4967,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4832,7 +4975,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4840,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4848,7 +4991,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4856,7 +4999,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4864,7 +5007,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4872,7 +5015,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4880,7 +5023,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4888,7 +5031,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4896,7 +5039,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4904,7 +5047,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4912,7 +5055,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4920,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4928,7 +5071,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4936,7 +5079,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4944,7 +5087,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4952,7 +5095,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4960,7 +5103,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4968,7 +5111,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4976,7 +5119,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4984,7 +5127,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4992,7 +5135,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5000,7 +5143,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5008,7 +5151,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5016,7 +5159,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5024,7 +5167,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5032,7 +5175,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5040,7 +5183,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5048,7 +5191,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5056,7 +5199,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5064,7 +5207,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5072,7 +5215,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5080,7 +5223,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5088,7 +5231,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5096,7 +5239,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5104,7 +5247,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5112,7 +5255,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5120,7 +5263,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5128,7 +5271,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5136,7 +5279,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5144,7 +5287,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5152,7 +5295,7 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5160,7 +5303,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5168,7 +5311,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5176,7 +5319,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5184,7 +5327,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5192,7 +5335,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5200,7 +5343,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5208,7 +5351,7 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5216,7 +5359,7 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5224,7 +5367,7 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5232,7 +5375,7 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5240,7 +5383,7 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5248,7 +5391,7 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5256,7 +5399,7 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5264,7 +5407,7 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5272,7 +5415,7 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5280,7 +5423,7 @@
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5288,7 +5431,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5296,7 +5439,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5304,7 +5447,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5312,7 +5455,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5320,7 +5463,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5328,7 +5471,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5336,7 +5479,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5344,7 +5487,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5352,7 +5495,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5360,7 +5503,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5368,7 +5511,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5376,7 +5519,7 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5384,7 +5527,7 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5392,7 +5535,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5400,7 +5543,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5408,7 +5551,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5416,7 +5559,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5424,7 +5567,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5432,7 +5575,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5440,7 +5583,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5448,7 +5591,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5456,7 +5599,7 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5464,7 +5607,7 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5472,7 +5615,7 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5480,7 +5623,7 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5488,7 +5631,7 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5496,7 +5639,7 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5504,7 +5647,7 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5512,7 +5655,7 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5520,7 +5663,7 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5528,7 +5671,7 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5536,7 +5679,7 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5544,7 +5687,7 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5552,7 +5695,7 @@
         <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5560,7 +5703,7 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5568,7 +5711,7 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5576,7 +5719,7 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5584,7 +5727,7 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5592,7 +5735,7 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5600,7 +5743,7 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5608,7 +5751,7 @@
         <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5616,7 +5759,7 @@
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5624,7 +5767,7 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5632,7 +5775,7 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5640,7 +5783,7 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5648,7 +5791,7 @@
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5656,7 +5799,7 @@
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5664,7 +5807,7 @@
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5672,7 +5815,7 @@
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5680,7 +5823,7 @@
         <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5688,7 +5831,7 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5696,7 +5839,7 @@
         <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5704,7 +5847,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5712,7 +5855,7 @@
         <v>158</v>
       </c>
       <c r="B150" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5720,7 +5863,7 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5728,7 +5871,7 @@
         <v>160</v>
       </c>
       <c r="B152" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5736,7 +5879,7 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5744,7 +5887,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5752,7 +5895,7 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5760,7 +5903,7 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5768,7 +5911,7 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5776,7 +5919,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5784,7 +5927,7 @@
         <v>167</v>
       </c>
       <c r="B159" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5792,7 +5935,7 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5800,7 +5943,7 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5808,7 +5951,7 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5816,7 +5959,7 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5824,7 +5967,7 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5832,7 +5975,7 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5840,7 +5983,7 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5848,7 +5991,7 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5856,7 +5999,7 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5864,7 +6007,7 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5872,7 +6015,7 @@
         <v>178</v>
       </c>
       <c r="B170" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5880,7 +6023,7 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5888,7 +6031,7 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5896,7 +6039,7 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5904,7 +6047,7 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5912,7 +6055,7 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5920,7 +6063,7 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5928,7 +6071,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5936,7 +6079,7 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5944,7 +6087,7 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5952,7 +6095,7 @@
         <v>188</v>
       </c>
       <c r="B180" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5960,7 +6103,7 @@
         <v>189</v>
       </c>
       <c r="B181" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5968,7 +6111,7 @@
         <v>190</v>
       </c>
       <c r="B182" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5976,7 +6119,7 @@
         <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5984,7 +6127,7 @@
         <v>192</v>
       </c>
       <c r="B184" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5992,7 +6135,7 @@
         <v>193</v>
       </c>
       <c r="B185" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -6000,7 +6143,7 @@
         <v>194</v>
       </c>
       <c r="B186" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -6008,7 +6151,7 @@
         <v>195</v>
       </c>
       <c r="B187" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -6016,7 +6159,7 @@
         <v>196</v>
       </c>
       <c r="B188" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -6024,7 +6167,7 @@
         <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -6032,7 +6175,7 @@
         <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -6040,7 +6183,7 @@
         <v>199</v>
       </c>
       <c r="B191" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -6048,7 +6191,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -6056,7 +6199,7 @@
         <v>201</v>
       </c>
       <c r="B193" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6064,7 +6207,7 @@
         <v>202</v>
       </c>
       <c r="B194" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -6072,7 +6215,7 @@
         <v>203</v>
       </c>
       <c r="B195" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -6080,7 +6223,7 @@
         <v>204</v>
       </c>
       <c r="B196" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -6088,7 +6231,7 @@
         <v>205</v>
       </c>
       <c r="B197" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6096,7 +6239,7 @@
         <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6104,7 +6247,7 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -6112,7 +6255,7 @@
         <v>208</v>
       </c>
       <c r="B200" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6120,7 +6263,7 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6128,7 +6271,7 @@
         <v>210</v>
       </c>
       <c r="B202" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6136,7 +6279,7 @@
         <v>211</v>
       </c>
       <c r="B203" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6144,7 +6287,7 @@
         <v>212</v>
       </c>
       <c r="B204" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6152,7 +6295,7 @@
         <v>213</v>
       </c>
       <c r="B205" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6160,7 +6303,7 @@
         <v>214</v>
       </c>
       <c r="B206" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6168,7 +6311,7 @@
         <v>215</v>
       </c>
       <c r="B207" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6176,7 +6319,7 @@
         <v>216</v>
       </c>
       <c r="B208" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6184,7 +6327,7 @@
         <v>217</v>
       </c>
       <c r="B209" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -6192,7 +6335,7 @@
         <v>218</v>
       </c>
       <c r="B210" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -6200,7 +6343,7 @@
         <v>219</v>
       </c>
       <c r="B211" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6208,7 +6351,7 @@
         <v>220</v>
       </c>
       <c r="B212" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6216,7 +6359,7 @@
         <v>221</v>
       </c>
       <c r="B213" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6224,7 +6367,7 @@
         <v>222</v>
       </c>
       <c r="B214" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6232,7 +6375,7 @@
         <v>223</v>
       </c>
       <c r="B215" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -6240,7 +6383,7 @@
         <v>224</v>
       </c>
       <c r="B216" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6248,7 +6391,7 @@
         <v>225</v>
       </c>
       <c r="B217" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -6256,7 +6399,7 @@
         <v>226</v>
       </c>
       <c r="B218" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -6264,7 +6407,7 @@
         <v>227</v>
       </c>
       <c r="B219" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6272,7 +6415,7 @@
         <v>228</v>
       </c>
       <c r="B220" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -6280,7 +6423,7 @@
         <v>229</v>
       </c>
       <c r="B221" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6288,7 +6431,7 @@
         <v>230</v>
       </c>
       <c r="B222" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -6296,7 +6439,7 @@
         <v>231</v>
       </c>
       <c r="B223" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -6304,7 +6447,7 @@
         <v>232</v>
       </c>
       <c r="B224" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -6312,7 +6455,7 @@
         <v>233</v>
       </c>
       <c r="B225" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6320,7 +6463,7 @@
         <v>234</v>
       </c>
       <c r="B226" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6328,7 +6471,7 @@
         <v>235</v>
       </c>
       <c r="B227" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6336,7 +6479,7 @@
         <v>236</v>
       </c>
       <c r="B228" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -6344,7 +6487,7 @@
         <v>237</v>
       </c>
       <c r="B229" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -6352,7 +6495,7 @@
         <v>238</v>
       </c>
       <c r="B230" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -6360,7 +6503,7 @@
         <v>239</v>
       </c>
       <c r="B231" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -6368,7 +6511,7 @@
         <v>240</v>
       </c>
       <c r="B232" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6376,7 +6519,7 @@
         <v>241</v>
       </c>
       <c r="B233" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -6384,7 +6527,7 @@
         <v>242</v>
       </c>
       <c r="B234" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -6392,7 +6535,7 @@
         <v>243</v>
       </c>
       <c r="B235" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6400,7 +6543,7 @@
         <v>244</v>
       </c>
       <c r="B236" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6408,7 +6551,7 @@
         <v>245</v>
       </c>
       <c r="B237" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6416,7 +6559,7 @@
         <v>246</v>
       </c>
       <c r="B238" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -6424,7 +6567,7 @@
         <v>247</v>
       </c>
       <c r="B239" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -6432,7 +6575,7 @@
         <v>248</v>
       </c>
       <c r="B240" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6440,7 +6583,7 @@
         <v>249</v>
       </c>
       <c r="B241" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6448,7 +6591,7 @@
         <v>250</v>
       </c>
       <c r="B242" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6456,7 +6599,7 @@
         <v>251</v>
       </c>
       <c r="B243" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6464,7 +6607,7 @@
         <v>252</v>
       </c>
       <c r="B244" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6472,7 +6615,7 @@
         <v>253</v>
       </c>
       <c r="B245" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6480,7 +6623,7 @@
         <v>254</v>
       </c>
       <c r="B246" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6488,7 +6631,7 @@
         <v>255</v>
       </c>
       <c r="B247" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6496,7 +6639,7 @@
         <v>256</v>
       </c>
       <c r="B248" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6504,7 +6647,7 @@
         <v>257</v>
       </c>
       <c r="B249" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6512,7 +6655,7 @@
         <v>258</v>
       </c>
       <c r="B250" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6520,7 +6663,7 @@
         <v>259</v>
       </c>
       <c r="B251" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6528,7 +6671,7 @@
         <v>260</v>
       </c>
       <c r="B252" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6536,7 +6679,7 @@
         <v>261</v>
       </c>
       <c r="B253" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6544,7 +6687,7 @@
         <v>262</v>
       </c>
       <c r="B254" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6552,7 +6695,7 @@
         <v>263</v>
       </c>
       <c r="B255" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6560,7 +6703,7 @@
         <v>264</v>
       </c>
       <c r="B256" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6568,7 +6711,7 @@
         <v>265</v>
       </c>
       <c r="B257" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6576,7 +6719,7 @@
         <v>266</v>
       </c>
       <c r="B258" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6584,7 +6727,7 @@
         <v>267</v>
       </c>
       <c r="B259" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6592,7 +6735,7 @@
         <v>268</v>
       </c>
       <c r="B260" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6600,7 +6743,7 @@
         <v>269</v>
       </c>
       <c r="B261" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6608,7 +6751,7 @@
         <v>270</v>
       </c>
       <c r="B262" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6616,7 +6759,7 @@
         <v>271</v>
       </c>
       <c r="B263" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6624,7 +6767,7 @@
         <v>272</v>
       </c>
       <c r="B264" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6632,7 +6775,7 @@
         <v>273</v>
       </c>
       <c r="B265" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6640,7 +6783,7 @@
         <v>274</v>
       </c>
       <c r="B266" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6648,7 +6791,7 @@
         <v>275</v>
       </c>
       <c r="B267" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6656,7 +6799,7 @@
         <v>276</v>
       </c>
       <c r="B268" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6664,7 +6807,7 @@
         <v>277</v>
       </c>
       <c r="B269" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6672,7 +6815,7 @@
         <v>278</v>
       </c>
       <c r="B270" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6680,7 +6823,7 @@
         <v>279</v>
       </c>
       <c r="B271" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6688,7 +6831,7 @@
         <v>280</v>
       </c>
       <c r="B272" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6696,7 +6839,7 @@
         <v>281</v>
       </c>
       <c r="B273" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6704,7 +6847,7 @@
         <v>282</v>
       </c>
       <c r="B274" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6712,7 +6855,7 @@
         <v>283</v>
       </c>
       <c r="B275" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6720,7 +6863,7 @@
         <v>284</v>
       </c>
       <c r="B276" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6728,7 +6871,7 @@
         <v>285</v>
       </c>
       <c r="B277" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6736,7 +6879,7 @@
         <v>286</v>
       </c>
       <c r="B278" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6744,7 +6887,7 @@
         <v>287</v>
       </c>
       <c r="B279" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6752,7 +6895,7 @@
         <v>288</v>
       </c>
       <c r="B280" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6760,7 +6903,7 @@
         <v>289</v>
       </c>
       <c r="B281" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6768,7 +6911,7 @@
         <v>290</v>
       </c>
       <c r="B282" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6776,7 +6919,7 @@
         <v>291</v>
       </c>
       <c r="B283" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6784,7 +6927,7 @@
         <v>292</v>
       </c>
       <c r="B284" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6792,7 +6935,7 @@
         <v>293</v>
       </c>
       <c r="B285" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6800,7 +6943,7 @@
         <v>294</v>
       </c>
       <c r="B286" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6808,7 +6951,7 @@
         <v>295</v>
       </c>
       <c r="B287" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6816,7 +6959,7 @@
         <v>296</v>
       </c>
       <c r="B288" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6824,7 +6967,7 @@
         <v>297</v>
       </c>
       <c r="B289" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6832,7 +6975,7 @@
         <v>298</v>
       </c>
       <c r="B290" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6840,7 +6983,7 @@
         <v>299</v>
       </c>
       <c r="B291" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6848,7 +6991,7 @@
         <v>300</v>
       </c>
       <c r="B292" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6856,7 +6999,7 @@
         <v>301</v>
       </c>
       <c r="B293" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6864,7 +7007,7 @@
         <v>302</v>
       </c>
       <c r="B294" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6872,7 +7015,7 @@
         <v>303</v>
       </c>
       <c r="B295" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6880,7 +7023,7 @@
         <v>304</v>
       </c>
       <c r="B296" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6888,7 +7031,7 @@
         <v>305</v>
       </c>
       <c r="B297" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6896,7 +7039,7 @@
         <v>306</v>
       </c>
       <c r="B298" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6904,7 +7047,7 @@
         <v>307</v>
       </c>
       <c r="B299" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6912,7 +7055,7 @@
         <v>308</v>
       </c>
       <c r="B300" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6920,7 +7063,7 @@
         <v>309</v>
       </c>
       <c r="B301" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6928,7 +7071,7 @@
         <v>310</v>
       </c>
       <c r="B302" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6936,7 +7079,7 @@
         <v>311</v>
       </c>
       <c r="B303" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6944,7 +7087,7 @@
         <v>312</v>
       </c>
       <c r="B304" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6952,7 +7095,7 @@
         <v>313</v>
       </c>
       <c r="B305" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6960,7 +7103,7 @@
         <v>314</v>
       </c>
       <c r="B306" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6968,7 +7111,7 @@
         <v>315</v>
       </c>
       <c r="B307" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6976,7 +7119,7 @@
         <v>316</v>
       </c>
       <c r="B308" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6984,7 +7127,7 @@
         <v>317</v>
       </c>
       <c r="B309" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6992,7 +7135,7 @@
         <v>318</v>
       </c>
       <c r="B310" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -7000,7 +7143,7 @@
         <v>319</v>
       </c>
       <c r="B311" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -7008,7 +7151,7 @@
         <v>320</v>
       </c>
       <c r="B312" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -7016,7 +7159,7 @@
         <v>321</v>
       </c>
       <c r="B313" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -7024,7 +7167,7 @@
         <v>322</v>
       </c>
       <c r="B314" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -7032,7 +7175,7 @@
         <v>323</v>
       </c>
       <c r="B315" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -7040,7 +7183,7 @@
         <v>324</v>
       </c>
       <c r="B316" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -7048,7 +7191,7 @@
         <v>325</v>
       </c>
       <c r="B317" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -7056,7 +7199,7 @@
         <v>326</v>
       </c>
       <c r="B318" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7064,7 +7207,7 @@
         <v>327</v>
       </c>
       <c r="B319" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7072,7 +7215,7 @@
         <v>328</v>
       </c>
       <c r="B320" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -7080,7 +7223,7 @@
         <v>329</v>
       </c>
       <c r="B321" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -7088,7 +7231,7 @@
         <v>330</v>
       </c>
       <c r="B322" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -7096,7 +7239,7 @@
         <v>331</v>
       </c>
       <c r="B323" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -7104,7 +7247,7 @@
         <v>332</v>
       </c>
       <c r="B324" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7112,7 +7255,7 @@
         <v>333</v>
       </c>
       <c r="B325" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7120,7 +7263,7 @@
         <v>334</v>
       </c>
       <c r="B326" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7128,7 +7271,7 @@
         <v>335</v>
       </c>
       <c r="B327" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7136,7 +7279,7 @@
         <v>336</v>
       </c>
       <c r="B328" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7144,7 +7287,7 @@
         <v>337</v>
       </c>
       <c r="B329" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7152,7 +7295,7 @@
         <v>338</v>
       </c>
       <c r="B330" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7160,7 +7303,7 @@
         <v>339</v>
       </c>
       <c r="B331" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7168,7 +7311,7 @@
         <v>340</v>
       </c>
       <c r="B332" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7176,7 +7319,7 @@
         <v>341</v>
       </c>
       <c r="B333" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7184,7 +7327,7 @@
         <v>342</v>
       </c>
       <c r="B334" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7192,7 +7335,7 @@
         <v>343</v>
       </c>
       <c r="B335" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7200,7 +7343,7 @@
         <v>344</v>
       </c>
       <c r="B336" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7208,7 +7351,7 @@
         <v>345</v>
       </c>
       <c r="B337" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7216,7 +7359,7 @@
         <v>346</v>
       </c>
       <c r="B338" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7224,7 +7367,7 @@
         <v>347</v>
       </c>
       <c r="B339" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7232,7 +7375,7 @@
         <v>348</v>
       </c>
       <c r="B340" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7240,7 +7383,7 @@
         <v>349</v>
       </c>
       <c r="B341" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -7248,7 +7391,7 @@
         <v>350</v>
       </c>
       <c r="B342" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -7256,7 +7399,7 @@
         <v>351</v>
       </c>
       <c r="B343" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7264,7 +7407,7 @@
         <v>352</v>
       </c>
       <c r="B344" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7272,7 +7415,7 @@
         <v>353</v>
       </c>
       <c r="B345" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7280,7 +7423,7 @@
         <v>354</v>
       </c>
       <c r="B346" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7288,7 +7431,7 @@
         <v>355</v>
       </c>
       <c r="B347" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -7296,7 +7439,7 @@
         <v>356</v>
       </c>
       <c r="B348" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7304,7 +7447,7 @@
         <v>357</v>
       </c>
       <c r="B349" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7312,7 +7455,7 @@
         <v>358</v>
       </c>
       <c r="B350" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7320,7 +7463,7 @@
         <v>359</v>
       </c>
       <c r="B351" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7328,7 +7471,7 @@
         <v>360</v>
       </c>
       <c r="B352" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7336,7 +7479,7 @@
         <v>361</v>
       </c>
       <c r="B353" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7344,7 +7487,7 @@
         <v>362</v>
       </c>
       <c r="B354" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7352,7 +7495,7 @@
         <v>363</v>
       </c>
       <c r="B355" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7360,7 +7503,7 @@
         <v>364</v>
       </c>
       <c r="B356" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7368,7 +7511,7 @@
         <v>365</v>
       </c>
       <c r="B357" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7376,7 +7519,7 @@
         <v>366</v>
       </c>
       <c r="B358" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7384,7 +7527,7 @@
         <v>367</v>
       </c>
       <c r="B359" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7392,7 +7535,7 @@
         <v>368</v>
       </c>
       <c r="B360" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -7400,7 +7543,7 @@
         <v>369</v>
       </c>
       <c r="B361" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7408,7 +7551,7 @@
         <v>370</v>
       </c>
       <c r="B362" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7416,7 +7559,7 @@
         <v>371</v>
       </c>
       <c r="B363" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7424,7 +7567,7 @@
         <v>372</v>
       </c>
       <c r="B364" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7432,7 +7575,7 @@
         <v>373</v>
       </c>
       <c r="B365" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7440,7 +7583,7 @@
         <v>374</v>
       </c>
       <c r="B366" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -7448,7 +7591,7 @@
         <v>375</v>
       </c>
       <c r="B367" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7456,7 +7599,159 @@
         <v>376</v>
       </c>
       <c r="B368" t="s">
-        <v>603</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>377</v>
+      </c>
+      <c r="B369" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>378</v>
+      </c>
+      <c r="B370" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>379</v>
+      </c>
+      <c r="B371" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>380</v>
+      </c>
+      <c r="B372" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>381</v>
+      </c>
+      <c r="B373" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>382</v>
+      </c>
+      <c r="B374" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>383</v>
+      </c>
+      <c r="B375" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>384</v>
+      </c>
+      <c r="B376" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>385</v>
+      </c>
+      <c r="B377" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>386</v>
+      </c>
+      <c r="B378" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>387</v>
+      </c>
+      <c r="B379" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>388</v>
+      </c>
+      <c r="B380" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>389</v>
+      </c>
+      <c r="B381" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>390</v>
+      </c>
+      <c r="B382" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>391</v>
+      </c>
+      <c r="B383" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>392</v>
+      </c>
+      <c r="B384" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>393</v>
+      </c>
+      <c r="B385" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>394</v>
+      </c>
+      <c r="B386" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>395</v>
+      </c>
+      <c r="B387" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -7493,7 +7788,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7501,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7509,7 +7804,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7517,7 +7812,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7525,7 +7820,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7533,7 +7828,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7541,7 +7836,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7549,7 +7844,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7557,7 +7852,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7565,7 +7860,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7573,7 +7868,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7581,7 +7876,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7589,7 +7884,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7597,7 +7892,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7605,7 +7900,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7613,7 +7908,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7621,7 +7916,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7629,7 +7924,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7637,7 +7932,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7645,7 +7940,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7653,7 +7948,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7661,7 +7956,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7669,7 +7964,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7677,7 +7972,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7685,7 +7980,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7693,7 +7988,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7701,7 +7996,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7709,7 +8004,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7717,7 +8012,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7725,7 +8020,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7733,7 +8028,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7741,7 +8036,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7749,7 +8044,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -7757,7 +8052,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7765,7 +8060,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7773,7 +8068,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7781,7 +8076,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -7789,7 +8084,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7797,7 +8092,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7805,7 +8100,7 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7813,7 +8108,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7821,7 +8116,7 @@
         <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7829,7 +8124,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7837,7 +8132,7 @@
         <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7845,7 +8140,7 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7853,7 +8148,7 @@
         <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7861,7 +8156,7 @@
         <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7869,7 +8164,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7877,7 +8172,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7885,7 +8180,7 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7893,7 +8188,7 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7901,7 +8196,7 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7909,7 +8204,7 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7917,7 +8212,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7925,7 +8220,7 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7933,7 +8228,7 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7941,7 +8236,7 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7949,7 +8244,7 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -7957,7 +8252,7 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -7965,7 +8260,7 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -7973,7 +8268,7 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -7981,7 +8276,7 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -7989,7 +8284,7 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -7997,7 +8292,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8005,7 +8300,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8013,7 +8308,7 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8021,7 +8316,7 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8029,7 +8324,7 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8037,7 +8332,7 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8045,7 +8340,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8053,7 +8348,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8061,7 +8356,7 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8069,7 +8364,7 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8077,7 +8372,7 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8085,7 +8380,7 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8093,7 +8388,7 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -8101,7 +8396,7 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8109,7 +8404,7 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -8117,7 +8412,7 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8125,7 +8420,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8133,7 +8428,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8141,7 +8436,7 @@
         <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8149,7 +8444,7 @@
         <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8157,7 +8452,7 @@
         <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8165,7 +8460,7 @@
         <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8173,7 +8468,7 @@
         <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -8181,7 +8476,7 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8189,7 +8484,7 @@
         <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -8197,7 +8492,7 @@
         <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -8205,7 +8500,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -8213,7 +8508,7 @@
         <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -8221,7 +8516,7 @@
         <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8229,7 +8524,7 @@
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -8237,7 +8532,7 @@
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -8245,7 +8540,7 @@
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -8253,7 +8548,7 @@
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -8261,7 +8556,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -8269,7 +8564,7 @@
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -8277,7 +8572,7 @@
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -8285,7 +8580,7 @@
         <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -8293,7 +8588,7 @@
         <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -8301,7 +8596,7 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8309,7 +8604,7 @@
         <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -8317,7 +8612,7 @@
         <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -8325,7 +8620,7 @@
         <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -8333,7 +8628,7 @@
         <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -8341,7 +8636,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -8349,7 +8644,7 @@
         <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -8357,7 +8652,7 @@
         <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -8365,7 +8660,7 @@
         <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -8373,7 +8668,7 @@
         <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -8381,7 +8676,7 @@
         <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -8389,7 +8684,7 @@
         <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -8397,7 +8692,7 @@
         <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -8405,7 +8700,7 @@
         <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8413,7 +8708,7 @@
         <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8421,7 +8716,7 @@
         <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -8429,7 +8724,7 @@
         <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8437,7 +8732,7 @@
         <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8445,7 +8740,7 @@
         <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8453,7 +8748,7 @@
         <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -8461,7 +8756,7 @@
         <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8469,7 +8764,7 @@
         <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8477,7 +8772,7 @@
         <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8485,7 +8780,7 @@
         <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8493,7 +8788,7 @@
         <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>695</v>
+        <v>721</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8501,7 +8796,7 @@
         <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>696</v>
+        <v>722</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8509,7 +8804,7 @@
         <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>697</v>
+        <v>723</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8517,7 +8812,7 @@
         <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>698</v>
+        <v>724</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8525,7 +8820,7 @@
         <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>699</v>
+        <v>725</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8533,7 +8828,7 @@
         <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>700</v>
+        <v>726</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8541,7 +8836,7 @@
         <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8549,7 +8844,7 @@
         <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>701</v>
+        <v>727</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8557,7 +8852,7 @@
         <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>702</v>
+        <v>728</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8565,7 +8860,7 @@
         <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>703</v>
+        <v>729</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8573,7 +8868,7 @@
         <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>704</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8581,7 +8876,7 @@
         <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8589,7 +8884,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>706</v>
+        <v>732</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8597,7 +8892,7 @@
         <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>707</v>
+        <v>733</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8605,7 +8900,7 @@
         <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>708</v>
+        <v>734</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8613,7 +8908,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>709</v>
+        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8621,7 +8916,7 @@
         <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>710</v>
+        <v>736</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8629,7 +8924,7 @@
         <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>711</v>
+        <v>737</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8637,7 +8932,7 @@
         <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>712</v>
+        <v>738</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8645,7 +8940,7 @@
         <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>713</v>
+        <v>739</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -8653,7 +8948,7 @@
         <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>714</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -8677,7 +8972,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -8690,7 +8985,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>715</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8698,7 +8993,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8706,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8714,7 +9009,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8722,7 +9017,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8730,7 +9025,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8738,7 +9033,7 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8746,7 +9041,7 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8754,7 +9049,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>723</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8762,7 +9057,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>724</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8770,7 +9065,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8778,7 +9073,7 @@
         <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8786,7 +9081,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8794,7 +9089,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8802,7 +9097,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8810,7 +9105,7 @@
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8818,7 +9113,7 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8826,7 +9121,7 @@
         <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8834,7 +9129,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8842,7 +9137,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8850,7 +9145,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8858,7 +9153,7 @@
         <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8866,7 +9161,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8874,7 +9169,7 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8882,7 +9177,7 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8890,7 +9185,7 @@
         <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8898,7 +9193,7 @@
         <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8906,7 +9201,7 @@
         <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8914,7 +9209,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8922,7 +9217,7 @@
         <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8930,7 +9225,7 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8938,7 +9233,7 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8946,7 +9241,7 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8954,7 +9249,7 @@
         <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8962,7 +9257,7 @@
         <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8970,7 +9265,7 @@
         <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8978,7 +9273,7 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8986,7 +9281,7 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8994,7 +9289,7 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9002,7 +9297,7 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9010,7 +9305,7 @@
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9018,7 +9313,7 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9026,7 +9321,7 @@
         <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9034,7 +9329,7 @@
         <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -9042,7 +9337,7 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -9050,7 +9345,7 @@
         <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -9058,7 +9353,7 @@
         <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -9066,7 +9361,7 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9074,7 +9369,7 @@
         <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -9082,7 +9377,7 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -9090,7 +9385,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -9098,7 +9393,7 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -9106,7 +9401,7 @@
         <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -9114,7 +9409,39 @@
         <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>596</v>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -9148,10 +9475,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="B1" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9159,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9167,7 +9494,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9175,7 +9502,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9183,7 +9510,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
